--- a/frtb_config.xlsx
+++ b/frtb_config.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="678">
   <si>
     <t>2w</t>
   </si>
@@ -425,9 +425,6 @@
     <t>S_FX_4a,S_FX_4b</t>
   </si>
   <si>
-    <t>S_IR_2,S_IR_3</t>
-  </si>
-  <si>
     <t>C23</t>
   </si>
   <si>
@@ -2064,6 +2061,12 @@
   </si>
   <si>
     <t>S_IR_1,S_IR_2,S_IR_3</t>
+  </si>
+  <si>
+    <t>Risk_IRVega</t>
+  </si>
+  <si>
+    <t>S_IR_1,S_IR_4</t>
   </si>
 </sst>
 </file>
@@ -2901,7 +2904,7 @@
   <dimension ref="A1:C315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2919,7 +2922,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2929,6 +2932,9 @@
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -3042,7 +3048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>119</v>
       </c>
@@ -3050,7 +3056,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>121</v>
       </c>
@@ -3058,7 +3064,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>122</v>
       </c>
@@ -3066,7 +3072,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>123</v>
       </c>
@@ -3074,164 +3080,161 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>62</v>
@@ -3239,7 +3242,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>66</v>
@@ -3247,391 +3250,391 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B73" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B87" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B88" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B89" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>77</v>
@@ -3639,7 +3642,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>80</v>
@@ -3647,79 +3650,79 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>83</v>
@@ -3727,111 +3730,111 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B114" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>86</v>
@@ -3839,7 +3842,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>88</v>
@@ -3847,159 +3850,159 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>89</v>
@@ -4007,7 +4010,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>91</v>
@@ -4015,7 +4018,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>92</v>
@@ -4023,7 +4026,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>93</v>
@@ -4031,7 +4034,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>94</v>
@@ -4039,7 +4042,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>95</v>
@@ -4047,7 +4050,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>96</v>
@@ -4055,7 +4058,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>97</v>
@@ -4063,1033 +4066,1033 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B155" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B168" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B183" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B198" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B210" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -5126,7 +5129,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B2" s="3">
         <v>9500000</v>
@@ -5137,7 +5140,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B3" s="3">
         <v>500000</v>
@@ -5148,7 +5151,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B4" s="3">
         <v>500000</v>
@@ -5159,7 +5162,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B5" s="3">
         <v>49000000</v>
@@ -5766,7 +5769,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5900,7 +5903,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B2" s="3">
         <v>3100000</v>
@@ -5911,7 +5914,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B3" s="3">
         <v>31000000</v>
@@ -5922,7 +5925,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B4" s="3">
         <v>700000</v>
@@ -5933,7 +5936,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B5" s="3">
         <v>2100000</v>
@@ -5944,7 +5947,7 @@
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B6" s="3">
         <v>690000000</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B7" s="3">
         <v>700000</v>
@@ -5966,7 +5969,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B8" s="3">
         <v>1100000000</v>
@@ -5977,7 +5980,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B9" s="3">
         <v>11000000000</v>
@@ -5988,7 +5991,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B10" s="3">
         <v>170000000</v>
@@ -5999,7 +6002,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B11" s="3">
         <v>500000000</v>
@@ -6010,7 +6013,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B12" s="3">
         <v>39000000000</v>
@@ -6021,7 +6024,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B13" s="3">
         <v>170000000</v>
@@ -7090,7 +7093,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7256,7 +7259,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B2" s="3">
         <v>700000000</v>
@@ -7267,7 +7270,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B3" s="3">
         <v>23000000000</v>
@@ -7278,7 +7281,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B4" s="3">
         <v>3200000000</v>
@@ -7289,7 +7292,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B5" s="3">
         <v>3800000000</v>
@@ -7300,7 +7303,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B6" s="3">
         <v>1800000000</v>
@@ -7311,7 +7314,7 @@
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B7" s="3">
         <v>6500000000</v>
@@ -7322,7 +7325,7 @@
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B8" s="3">
         <v>400000000</v>
@@ -7333,7 +7336,7 @@
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B9" s="3">
         <v>45000000</v>
@@ -7344,7 +7347,7 @@
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B10" s="3">
         <v>300000000</v>
@@ -7355,7 +7358,7 @@
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B11" s="3">
         <v>1200000</v>
@@ -7366,7 +7369,7 @@
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B12" s="3">
         <v>1800000000</v>
@@ -7377,7 +7380,7 @@
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B13" s="3">
         <v>5600000000</v>
@@ -7388,7 +7391,7 @@
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B14" s="3">
         <v>480000000</v>
@@ -7399,7 +7402,7 @@
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B15" s="3">
         <v>750000000</v>
@@ -7410,7 +7413,7 @@
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B16" s="3">
         <v>3500000</v>
@@ -7421,7 +7424,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B17" s="3">
         <v>1200000</v>
@@ -7432,7 +7435,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B18" s="3">
         <v>4900000</v>
@@ -7443,7 +7446,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B19" s="3">
         <v>1900000000</v>
@@ -7454,7 +7457,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B20" s="3">
         <v>330000000</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B21" s="3">
         <v>590000000</v>
@@ -7476,7 +7479,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B22" s="3">
         <v>590000000</v>
@@ -7487,7 +7490,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B23" s="3">
         <v>560000000</v>
@@ -7498,7 +7501,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B24">
         <v>350000000</v>
@@ -7509,7 +7512,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B25">
         <v>120000000</v>
@@ -7520,7 +7523,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B26">
         <v>330000000</v>
@@ -7531,7 +7534,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B27">
         <v>110000000</v>
@@ -7542,7 +7545,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B28">
         <v>400000000</v>
@@ -7553,7 +7556,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B29">
         <v>420000000</v>
@@ -7564,7 +7567,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B30">
         <v>56000000</v>
@@ -7575,7 +7578,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B31">
         <v>66000000</v>
@@ -7586,7 +7589,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B32">
         <v>26000000</v>
@@ -7597,7 +7600,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B33">
         <v>27000000</v>
@@ -7626,13 +7629,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>660</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>61</v>
@@ -7641,7 +7644,7 @@
         <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7771,10 +7774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7795,7 +7798,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -7816,36 +7819,36 @@
         <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>669</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>664</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>665</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>1</v>
@@ -7862,19 +7865,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>664</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>665</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>2</v>
@@ -7891,19 +7894,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>664</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>1</v>
@@ -7916,6 +7919,38 @@
       </c>
       <c r="L4" s="3">
         <v>1035.6242099999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-1.0331999999999999E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>72.071212000000003</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1042.6269050000001</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1042.6372369999999</v>
       </c>
     </row>
   </sheetData>
@@ -8609,7 +8644,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H19" s="3">
         <v>-1000000</v>
@@ -8626,13 +8661,13 @@
         <v>82</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -8641,7 +8676,7 @@
         <v>39</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H20" s="3">
         <v>2000000</v>
@@ -8658,13 +8693,13 @@
         <v>82</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -8687,13 +8722,13 @@
         <v>82</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E22" s="3">
         <v>5</v>
@@ -8716,13 +8751,13 @@
         <v>82</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
@@ -8745,13 +8780,13 @@
         <v>82</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E24" s="3">
         <v>7</v>
@@ -8774,13 +8809,13 @@
         <v>82</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E25" s="3">
         <v>7</v>
@@ -8803,13 +8838,13 @@
         <v>82</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E26" s="3">
         <v>9</v>
@@ -8832,7 +8867,7 @@
         <v>82</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>63</v>
@@ -8861,13 +8896,13 @@
         <v>82</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>10</v>
@@ -8891,13 +8926,13 @@
         <v>82</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -8920,13 +8955,13 @@
         <v>82</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -8949,13 +8984,13 @@
         <v>82</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -8978,13 +9013,13 @@
         <v>82</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -9007,13 +9042,13 @@
         <v>82</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -9036,13 +9071,13 @@
         <v>82</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>525</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -9065,13 +9100,13 @@
         <v>82</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>527</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -9094,10 +9129,10 @@
         <v>82</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>84</v>
@@ -9123,13 +9158,13 @@
         <v>82</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>10</v>
@@ -9209,13 +9244,13 @@
         <v>61</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E42" s="3">
         <v>7</v>
@@ -9235,13 +9270,13 @@
         <v>61</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E43" s="3">
         <v>3</v>
@@ -9261,13 +9296,13 @@
         <v>61</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E44" s="3">
         <v>3</v>
@@ -9287,13 +9322,13 @@
         <v>61</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E45" s="3">
         <v>3</v>
@@ -9313,13 +9348,13 @@
         <v>61</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E46" s="3">
         <v>9</v>
@@ -9339,13 +9374,13 @@
         <v>61</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E47" s="3">
         <v>9</v>
@@ -9365,13 +9400,13 @@
         <v>61</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E48" s="3">
         <v>10</v>
@@ -9391,13 +9426,13 @@
         <v>61</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E49" s="3">
         <v>11</v>
@@ -9417,13 +9452,13 @@
         <v>61</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E50" s="3">
         <v>10</v>
@@ -9469,13 +9504,13 @@
         <v>61</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>10</v>
@@ -9733,7 +9768,7 @@
         <v>87</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
@@ -9761,7 +9796,7 @@
         <v>87</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E64" s="3">
         <v>15</v>
@@ -9783,13 +9818,13 @@
         <v>85</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E65" s="3">
         <v>15</v>
@@ -9809,13 +9844,13 @@
         <v>85</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E66" s="3">
         <v>8</v>
@@ -9835,13 +9870,13 @@
         <v>85</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E67" s="3">
         <v>8</v>
@@ -9861,13 +9896,13 @@
         <v>85</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E68" s="3">
         <v>8</v>
@@ -9887,13 +9922,13 @@
         <v>85</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E69" s="3">
         <v>9</v>
@@ -9913,13 +9948,13 @@
         <v>85</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E70" s="3">
         <v>9</v>
@@ -9939,13 +9974,13 @@
         <v>85</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E71" s="3">
         <v>12</v>
@@ -9965,13 +10000,13 @@
         <v>85</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E72" s="3">
         <v>12</v>
@@ -9991,13 +10026,13 @@
         <v>85</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E73" s="3">
         <v>12</v>
@@ -10254,13 +10289,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>10</v>
@@ -10283,13 +10318,13 @@
         <v>82</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>10</v>
@@ -10312,13 +10347,13 @@
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>10</v>
@@ -10341,13 +10376,13 @@
         <v>82</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>10</v>
@@ -10370,13 +10405,13 @@
         <v>82</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>10</v>
@@ -10399,13 +10434,13 @@
         <v>82</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>501</v>
       </c>
       <c r="E89" s="3">
         <v>1</v>
@@ -10428,13 +10463,13 @@
         <v>82</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="E90" s="3">
         <v>2</v>
@@ -10457,13 +10492,13 @@
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E91" s="3">
         <v>2</v>
@@ -10487,13 +10522,13 @@
         <v>82</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>547</v>
-      </c>
       <c r="D93" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>10</v>
@@ -10517,13 +10552,13 @@
         <v>82</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>10</v>
@@ -10547,13 +10582,13 @@
         <v>82</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>10</v>
@@ -10577,13 +10612,13 @@
         <v>82</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>10</v>
@@ -10607,13 +10642,13 @@
         <v>82</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>10</v>
@@ -10637,13 +10672,13 @@
         <v>82</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
@@ -10667,13 +10702,13 @@
         <v>82</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E99" s="3">
         <v>2</v>
@@ -10697,13 +10732,13 @@
         <v>82</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E100" s="3">
         <v>2</v>
@@ -10739,10 +10774,10 @@
         <v>61</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>81</v>
@@ -10768,13 +10803,13 @@
         <v>61</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E103" s="3">
         <v>9</v>
@@ -10797,13 +10832,13 @@
         <v>61</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E104" s="3">
         <v>9</v>
@@ -10826,13 +10861,13 @@
         <v>61</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E105" s="3">
         <v>11</v>
@@ -10855,13 +10890,13 @@
         <v>61</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E106" s="3">
         <v>11</v>
@@ -10884,13 +10919,13 @@
         <v>61</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>605</v>
       </c>
       <c r="E107" s="3">
         <v>7</v>
@@ -10914,7 +10949,7 @@
         <v>29</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>98</v>
@@ -10942,7 +10977,7 @@
         <v>29</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>98</v>
@@ -10970,7 +11005,7 @@
         <v>29</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>98</v>
@@ -10998,7 +11033,7 @@
         <v>29</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>98</v>
@@ -11026,7 +11061,7 @@
         <v>29</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>98</v>
@@ -11054,7 +11089,7 @@
         <v>29</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>98</v>
@@ -11082,13 +11117,13 @@
         <v>85</v>
       </c>
       <c r="B116" t="s">
+        <v>648</v>
+      </c>
+      <c r="C116" t="s">
         <v>649</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>650</v>
-      </c>
-      <c r="D116" t="s">
-        <v>651</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -11111,13 +11146,13 @@
         <v>85</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>651</v>
       </c>
       <c r="E117" s="3">
         <v>2</v>
@@ -11140,13 +11175,13 @@
         <v>85</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E118" s="3">
         <v>12</v>
@@ -11169,13 +11204,13 @@
         <v>85</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E119" s="3">
         <v>12</v>
@@ -11198,13 +11233,13 @@
         <v>85</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>655</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>656</v>
       </c>
       <c r="E120" s="3">
         <v>16</v>
@@ -11227,13 +11262,13 @@
         <v>85</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E121" s="3">
         <v>15</v>
@@ -11271,7 +11306,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -11311,7 +11346,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B6">
         <v>1.7299999999999999E-2</v>
@@ -11335,7 +11370,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B9">
         <v>1.4999999999999999E-2</v>
@@ -11351,7 +11386,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B11" s="3">
         <v>1.4999999999999999E-2</v>
@@ -12053,7 +12088,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B2" s="3">
         <v>1000000</v>
@@ -12064,7 +12099,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B3" s="3">
         <v>360000</v>
@@ -12075,7 +12110,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B4" s="3">
         <v>360000</v>

--- a/frtb_config.xlsx
+++ b/frtb_config.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="681">
   <si>
     <t>2w</t>
   </si>
@@ -458,9 +458,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>S_IR_8,S_IR_9</t>
-  </si>
-  <si>
     <t>S_IR_2,S_IR_4</t>
   </si>
   <si>
@@ -2067,6 +2064,18 @@
   </si>
   <si>
     <t>S_IR_1,S_IR_4</t>
+  </si>
+  <si>
+    <t>Risk_IRCurvature</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>DOWN</t>
+  </si>
+  <si>
+    <t>S_IR_1,S_IR_2,S_IR_3,S_IR_5,S_IR_6</t>
   </si>
 </sst>
 </file>
@@ -2904,13 +2913,13 @@
   <dimension ref="A1:C315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -2932,9 +2941,6 @@
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -3048,7 +3054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>119</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>121</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>122</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>123</v>
       </c>
@@ -3080,39 +3086,45 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>131</v>
       </c>
@@ -3120,121 +3132,121 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>62</v>
@@ -3242,7 +3254,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>66</v>
@@ -3250,391 +3262,391 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B87" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B88" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B89" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>77</v>
@@ -3642,7 +3654,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>80</v>
@@ -3650,79 +3662,79 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>83</v>
@@ -3730,111 +3742,111 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B114" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>86</v>
@@ -3842,7 +3854,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>88</v>
@@ -3850,159 +3862,159 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>89</v>
@@ -4010,7 +4022,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>91</v>
@@ -4018,7 +4030,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>92</v>
@@ -4026,7 +4038,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>93</v>
@@ -4034,7 +4046,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>94</v>
@@ -4042,7 +4054,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>95</v>
@@ -4050,7 +4062,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>96</v>
@@ -4058,7 +4070,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>97</v>
@@ -4066,1033 +4078,1033 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B155" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B167" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B168" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B183" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B198" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B210" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +5141,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B2" s="3">
         <v>9500000</v>
@@ -5140,7 +5152,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B3" s="3">
         <v>500000</v>
@@ -5151,7 +5163,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B4" s="3">
         <v>500000</v>
@@ -5162,7 +5174,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B5" s="3">
         <v>49000000</v>
@@ -5769,7 +5781,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5903,7 +5915,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B2" s="3">
         <v>3100000</v>
@@ -5914,7 +5926,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B3" s="3">
         <v>31000000</v>
@@ -5925,7 +5937,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B4" s="3">
         <v>700000</v>
@@ -5936,7 +5948,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B5" s="3">
         <v>2100000</v>
@@ -5947,7 +5959,7 @@
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B6" s="3">
         <v>690000000</v>
@@ -5958,7 +5970,7 @@
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B7" s="3">
         <v>700000</v>
@@ -5969,7 +5981,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B8" s="3">
         <v>1100000000</v>
@@ -5980,7 +5992,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B9" s="3">
         <v>11000000000</v>
@@ -5991,7 +6003,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B10" s="3">
         <v>170000000</v>
@@ -6002,7 +6014,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B11" s="3">
         <v>500000000</v>
@@ -6013,7 +6025,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B12" s="3">
         <v>39000000000</v>
@@ -6024,7 +6036,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B13" s="3">
         <v>170000000</v>
@@ -7093,7 +7105,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7259,7 +7271,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B2" s="3">
         <v>700000000</v>
@@ -7270,7 +7282,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B3" s="3">
         <v>23000000000</v>
@@ -7281,7 +7293,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B4" s="3">
         <v>3200000000</v>
@@ -7292,7 +7304,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B5" s="3">
         <v>3800000000</v>
@@ -7303,7 +7315,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B6" s="3">
         <v>1800000000</v>
@@ -7314,7 +7326,7 @@
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B7" s="3">
         <v>6500000000</v>
@@ -7325,7 +7337,7 @@
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B8" s="3">
         <v>400000000</v>
@@ -7336,7 +7348,7 @@
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B9" s="3">
         <v>45000000</v>
@@ -7347,7 +7359,7 @@
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B10" s="3">
         <v>300000000</v>
@@ -7358,7 +7370,7 @@
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B11" s="3">
         <v>1200000</v>
@@ -7369,7 +7381,7 @@
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B12" s="3">
         <v>1800000000</v>
@@ -7380,7 +7392,7 @@
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B13" s="3">
         <v>5600000000</v>
@@ -7391,7 +7403,7 @@
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B14" s="3">
         <v>480000000</v>
@@ -7402,7 +7414,7 @@
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B15" s="3">
         <v>750000000</v>
@@ -7413,7 +7425,7 @@
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B16" s="3">
         <v>3500000</v>
@@ -7424,7 +7436,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B17" s="3">
         <v>1200000</v>
@@ -7435,7 +7447,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B18" s="3">
         <v>4900000</v>
@@ -7446,7 +7458,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B19" s="3">
         <v>1900000000</v>
@@ -7457,7 +7469,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B20" s="3">
         <v>330000000</v>
@@ -7468,7 +7480,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B21" s="3">
         <v>590000000</v>
@@ -7479,7 +7491,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B22" s="3">
         <v>590000000</v>
@@ -7490,7 +7502,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B23" s="3">
         <v>560000000</v>
@@ -7501,7 +7513,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B24">
         <v>350000000</v>
@@ -7512,7 +7524,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B25">
         <v>120000000</v>
@@ -7523,7 +7535,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B26">
         <v>330000000</v>
@@ -7534,7 +7546,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B27">
         <v>110000000</v>
@@ -7545,7 +7557,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B28">
         <v>400000000</v>
@@ -7556,7 +7568,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B29">
         <v>420000000</v>
@@ -7567,7 +7579,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B30">
         <v>56000000</v>
@@ -7578,7 +7590,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B31">
         <v>66000000</v>
@@ -7589,7 +7601,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B32">
         <v>26000000</v>
@@ -7600,7 +7612,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B33">
         <v>27000000</v>
@@ -7629,13 +7641,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>659</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>61</v>
@@ -7644,7 +7656,7 @@
         <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7774,10 +7786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7798,7 +7810,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -7819,36 +7831,36 @@
         <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>668</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>664</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>1</v>
@@ -7865,19 +7877,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>664</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>2</v>
@@ -7894,19 +7906,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>663</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>1</v>
@@ -7923,16 +7935,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
@@ -7951,6 +7963,58 @@
       </c>
       <c r="L5" s="3">
         <v>1042.6372369999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-0.57004999999999995</v>
+      </c>
+      <c r="K6" s="3">
+        <v>898.81209999999999</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1035.6242099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-0.65703599999999995</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1193.3128200000001</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1035.6242099999999</v>
       </c>
     </row>
   </sheetData>
@@ -8644,7 +8708,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H19" s="3">
         <v>-1000000</v>
@@ -8661,13 +8725,13 @@
         <v>82</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -8676,7 +8740,7 @@
         <v>39</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H20" s="3">
         <v>2000000</v>
@@ -8693,13 +8757,13 @@
         <v>82</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -8722,13 +8786,13 @@
         <v>82</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E22" s="3">
         <v>5</v>
@@ -8751,13 +8815,13 @@
         <v>82</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
@@ -8780,13 +8844,13 @@
         <v>82</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E24" s="3">
         <v>7</v>
@@ -8809,13 +8873,13 @@
         <v>82</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E25" s="3">
         <v>7</v>
@@ -8838,13 +8902,13 @@
         <v>82</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E26" s="3">
         <v>9</v>
@@ -8867,7 +8931,7 @@
         <v>82</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>63</v>
@@ -8896,13 +8960,13 @@
         <v>82</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>10</v>
@@ -8926,13 +8990,13 @@
         <v>82</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -8955,13 +9019,13 @@
         <v>82</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>518</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -8984,13 +9048,13 @@
         <v>82</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -9013,13 +9077,13 @@
         <v>82</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>521</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -9042,13 +9106,13 @@
         <v>82</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -9071,13 +9135,13 @@
         <v>82</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>524</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -9100,13 +9164,13 @@
         <v>82</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -9129,10 +9193,10 @@
         <v>82</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>84</v>
@@ -9158,13 +9222,13 @@
         <v>82</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>10</v>
@@ -9244,13 +9308,13 @@
         <v>61</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E42" s="3">
         <v>7</v>
@@ -9270,13 +9334,13 @@
         <v>61</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E43" s="3">
         <v>3</v>
@@ -9296,13 +9360,13 @@
         <v>61</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E44" s="3">
         <v>3</v>
@@ -9322,13 +9386,13 @@
         <v>61</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E45" s="3">
         <v>3</v>
@@ -9348,13 +9412,13 @@
         <v>61</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E46" s="3">
         <v>9</v>
@@ -9374,13 +9438,13 @@
         <v>61</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E47" s="3">
         <v>9</v>
@@ -9400,13 +9464,13 @@
         <v>61</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E48" s="3">
         <v>10</v>
@@ -9426,13 +9490,13 @@
         <v>61</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E49" s="3">
         <v>11</v>
@@ -9452,13 +9516,13 @@
         <v>61</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E50" s="3">
         <v>10</v>
@@ -9504,13 +9568,13 @@
         <v>61</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>10</v>
@@ -9768,7 +9832,7 @@
         <v>87</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
@@ -9796,7 +9860,7 @@
         <v>87</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E64" s="3">
         <v>15</v>
@@ -9818,13 +9882,13 @@
         <v>85</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E65" s="3">
         <v>15</v>
@@ -9844,13 +9908,13 @@
         <v>85</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E66" s="3">
         <v>8</v>
@@ -9870,13 +9934,13 @@
         <v>85</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E67" s="3">
         <v>8</v>
@@ -9896,13 +9960,13 @@
         <v>85</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E68" s="3">
         <v>8</v>
@@ -9922,13 +9986,13 @@
         <v>85</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E69" s="3">
         <v>9</v>
@@ -9948,13 +10012,13 @@
         <v>85</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E70" s="3">
         <v>9</v>
@@ -9974,13 +10038,13 @@
         <v>85</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E71" s="3">
         <v>12</v>
@@ -10000,13 +10064,13 @@
         <v>85</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E72" s="3">
         <v>12</v>
@@ -10026,13 +10090,13 @@
         <v>85</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E73" s="3">
         <v>12</v>
@@ -10289,13 +10353,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>10</v>
@@ -10318,13 +10382,13 @@
         <v>82</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>10</v>
@@ -10347,13 +10411,13 @@
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>10</v>
@@ -10376,13 +10440,13 @@
         <v>82</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>10</v>
@@ -10405,13 +10469,13 @@
         <v>82</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>10</v>
@@ -10434,13 +10498,13 @@
         <v>82</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>500</v>
       </c>
       <c r="E89" s="3">
         <v>1</v>
@@ -10463,13 +10527,13 @@
         <v>82</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>502</v>
       </c>
       <c r="E90" s="3">
         <v>2</v>
@@ -10492,13 +10556,13 @@
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E91" s="3">
         <v>2</v>
@@ -10522,13 +10586,13 @@
         <v>82</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>546</v>
-      </c>
       <c r="D93" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>10</v>
@@ -10552,13 +10616,13 @@
         <v>82</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>10</v>
@@ -10582,13 +10646,13 @@
         <v>82</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>10</v>
@@ -10612,13 +10676,13 @@
         <v>82</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>10</v>
@@ -10642,13 +10706,13 @@
         <v>82</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>10</v>
@@ -10672,13 +10736,13 @@
         <v>82</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
@@ -10702,13 +10766,13 @@
         <v>82</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E99" s="3">
         <v>2</v>
@@ -10732,13 +10796,13 @@
         <v>82</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E100" s="3">
         <v>2</v>
@@ -10774,10 +10838,10 @@
         <v>61</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>81</v>
@@ -10803,13 +10867,13 @@
         <v>61</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E103" s="3">
         <v>9</v>
@@ -10832,13 +10896,13 @@
         <v>61</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E104" s="3">
         <v>9</v>
@@ -10861,13 +10925,13 @@
         <v>61</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E105" s="3">
         <v>11</v>
@@ -10890,13 +10954,13 @@
         <v>61</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E106" s="3">
         <v>11</v>
@@ -10919,13 +10983,13 @@
         <v>61</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>604</v>
       </c>
       <c r="E107" s="3">
         <v>7</v>
@@ -10949,7 +11013,7 @@
         <v>29</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>98</v>
@@ -10977,7 +11041,7 @@
         <v>29</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>98</v>
@@ -11005,7 +11069,7 @@
         <v>29</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>98</v>
@@ -11033,7 +11097,7 @@
         <v>29</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>98</v>
@@ -11061,7 +11125,7 @@
         <v>29</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>98</v>
@@ -11089,7 +11153,7 @@
         <v>29</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>98</v>
@@ -11117,13 +11181,13 @@
         <v>85</v>
       </c>
       <c r="B116" t="s">
+        <v>647</v>
+      </c>
+      <c r="C116" t="s">
         <v>648</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>649</v>
-      </c>
-      <c r="D116" t="s">
-        <v>650</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -11146,13 +11210,13 @@
         <v>85</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>650</v>
       </c>
       <c r="E117" s="3">
         <v>2</v>
@@ -11175,13 +11239,13 @@
         <v>85</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E118" s="3">
         <v>12</v>
@@ -11204,13 +11268,13 @@
         <v>85</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E119" s="3">
         <v>12</v>
@@ -11233,13 +11297,13 @@
         <v>85</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>655</v>
       </c>
       <c r="E120" s="3">
         <v>16</v>
@@ -11262,13 +11326,13 @@
         <v>85</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E121" s="3">
         <v>15</v>
@@ -11306,7 +11370,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -11346,7 +11410,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B6">
         <v>1.7299999999999999E-2</v>
@@ -11370,7 +11434,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B9">
         <v>1.4999999999999999E-2</v>
@@ -11386,7 +11450,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B11" s="3">
         <v>1.4999999999999999E-2</v>
@@ -12088,7 +12152,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B2" s="3">
         <v>1000000</v>
@@ -12099,7 +12163,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B3" s="3">
         <v>360000</v>
@@ -12110,7 +12174,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B4" s="3">
         <v>360000</v>

--- a/frtb_config.xlsx
+++ b/frtb_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="run_cases" sheetId="10" r:id="rId1"/>
@@ -26,14 +26,13 @@
     <sheet name="Commodity_in_bucket_correlation" sheetId="20" r:id="rId17"/>
     <sheet name="Commodity_CR_THR" sheetId="21" r:id="rId18"/>
     <sheet name="Risk_class_correlation" sheetId="22" r:id="rId19"/>
-    <sheet name="FX_CR_THR" sheetId="8" r:id="rId20"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="680">
   <si>
     <t>2w</t>
   </si>
@@ -71,18 +70,6 @@
     <t>Qualifying</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>C1_C1</t>
-  </si>
-  <si>
-    <t>C1_C2</t>
-  </si>
-  <si>
-    <t>C1_C3</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -2076,6 +2063,15 @@
   </si>
   <si>
     <t>S_IR_1,S_IR_2,S_IR_3,S_IR_5,S_IR_6</t>
+  </si>
+  <si>
+    <t>Risk_FXDelta</t>
+  </si>
+  <si>
+    <t>USDCAD</t>
+  </si>
+  <si>
+    <t>CADUSD</t>
   </si>
 </sst>
 </file>
@@ -2912,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2925,2186 +2921,2183 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>140</v>
+        <v>670</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>140</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B73" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B87" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B88" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B89" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B114" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B155" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B167" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B168" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B183" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B198" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B210" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -5141,7 +5134,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B2" s="3">
         <v>9500000</v>
@@ -5152,7 +5145,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B3" s="3">
         <v>500000</v>
@@ -5163,7 +5156,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B4" s="3">
         <v>500000</v>
@@ -5174,7 +5167,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B5" s="3">
         <v>49000000</v>
@@ -5781,7 +5774,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5915,7 +5908,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B2" s="3">
         <v>3100000</v>
@@ -5926,7 +5919,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B3" s="3">
         <v>31000000</v>
@@ -5937,7 +5930,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B4" s="3">
         <v>700000</v>
@@ -5948,7 +5941,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B5" s="3">
         <v>2100000</v>
@@ -5959,7 +5952,7 @@
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B6" s="3">
         <v>690000000</v>
@@ -5970,7 +5963,7 @@
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B7" s="3">
         <v>700000</v>
@@ -5981,7 +5974,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B8" s="3">
         <v>1100000000</v>
@@ -5992,7 +5985,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B9" s="3">
         <v>11000000000</v>
@@ -6003,7 +5996,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B10" s="3">
         <v>170000000</v>
@@ -6014,7 +6007,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B11" s="3">
         <v>500000000</v>
@@ -6025,7 +6018,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B12" s="3">
         <v>39000000000</v>
@@ -6036,7 +6029,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B13" s="3">
         <v>170000000</v>
@@ -7105,7 +7098,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7271,7 +7264,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B2" s="3">
         <v>700000000</v>
@@ -7282,7 +7275,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B3" s="3">
         <v>23000000000</v>
@@ -7293,7 +7286,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B4" s="3">
         <v>3200000000</v>
@@ -7304,7 +7297,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B5" s="3">
         <v>3800000000</v>
@@ -7315,7 +7308,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B6" s="3">
         <v>1800000000</v>
@@ -7326,7 +7319,7 @@
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B7" s="3">
         <v>6500000000</v>
@@ -7337,7 +7330,7 @@
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B8" s="3">
         <v>400000000</v>
@@ -7348,7 +7341,7 @@
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B9" s="3">
         <v>45000000</v>
@@ -7359,7 +7352,7 @@
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B10" s="3">
         <v>300000000</v>
@@ -7370,7 +7363,7 @@
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B11" s="3">
         <v>1200000</v>
@@ -7381,7 +7374,7 @@
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B12" s="3">
         <v>1800000000</v>
@@ -7392,7 +7385,7 @@
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B13" s="3">
         <v>5600000000</v>
@@ -7403,7 +7396,7 @@
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B14" s="3">
         <v>480000000</v>
@@ -7414,7 +7407,7 @@
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B15" s="3">
         <v>750000000</v>
@@ -7425,7 +7418,7 @@
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B16" s="3">
         <v>3500000</v>
@@ -7436,7 +7429,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B17" s="3">
         <v>1200000</v>
@@ -7447,7 +7440,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B18" s="3">
         <v>4900000</v>
@@ -7458,7 +7451,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B19" s="3">
         <v>1900000000</v>
@@ -7469,7 +7462,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B20" s="3">
         <v>330000000</v>
@@ -7480,7 +7473,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B21" s="3">
         <v>590000000</v>
@@ -7491,7 +7484,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B22" s="3">
         <v>590000000</v>
@@ -7502,7 +7495,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B23" s="3">
         <v>560000000</v>
@@ -7513,7 +7506,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B24">
         <v>350000000</v>
@@ -7524,7 +7517,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B25">
         <v>120000000</v>
@@ -7535,7 +7528,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B26">
         <v>330000000</v>
@@ -7546,7 +7539,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B27">
         <v>110000000</v>
@@ -7557,7 +7550,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B28">
         <v>400000000</v>
@@ -7568,7 +7561,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B29">
         <v>420000000</v>
@@ -7579,7 +7572,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B30">
         <v>56000000</v>
@@ -7590,7 +7583,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B31">
         <v>66000000</v>
@@ -7601,7 +7594,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B32">
         <v>26000000</v>
@@ -7612,7 +7605,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B33">
         <v>27000000</v>
@@ -7633,7 +7626,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -7641,22 +7634,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7786,10 +7779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7810,57 +7803,57 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>664</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>1</v>
@@ -7877,19 +7870,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>2</v>
@@ -7906,19 +7899,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>1</v>
@@ -7935,22 +7928,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I5" s="3">
         <v>-1.0331999999999999E-2</v>
@@ -7967,19 +7960,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="I6" s="3">
         <v>-0.57004999999999995</v>
@@ -7993,19 +7986,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="I7" s="3">
         <v>-0.65703599999999995</v>
@@ -8017,115 +8010,50 @@
         <v>1035.6242099999999</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3">
-        <v>5200000000</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1300000000</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3">
-        <v>260000000</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>5500000000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>3020000000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>520000000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>87000000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1386.528139</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1400.393421</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1386.528139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1386.528139</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1400.393421</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1386.528139</v>
       </c>
     </row>
   </sheetData>
@@ -8138,7 +8066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
@@ -8154,63 +8082,63 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3">
         <v>10000000</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J2" s="3">
         <v>10000000</v>
@@ -8218,31 +8146,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3">
         <v>-15000000</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J3" s="3">
         <v>-15000000</v>
@@ -8250,31 +8178,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4" s="3">
         <v>5000000</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3">
         <v>5000000</v>
@@ -8282,16 +8210,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -8300,7 +8228,7 @@
         <v>-10000000</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J5" s="3">
         <v>-10000000</v>
@@ -8308,31 +8236,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3">
         <v>-20000000</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J6" s="3">
         <v>-20000000</v>
@@ -8340,31 +8268,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3">
         <v>5000000</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J7" s="3">
         <v>5000000</v>
@@ -8372,16 +8300,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -8390,7 +8318,7 @@
         <v>10000000</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J8" s="3">
         <v>10000000</v>
@@ -8398,16 +8326,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -8416,13 +8344,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3">
         <v>-20000000</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J9" s="3">
         <v>-20000000</v>
@@ -8430,16 +8358,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
@@ -8448,13 +8376,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3">
         <v>10000000</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J10" s="3">
         <v>10000000</v>
@@ -8462,31 +8390,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3">
         <v>5000000</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J11" s="3">
         <v>5000000</v>
@@ -8494,31 +8422,31 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3">
         <v>5000000</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J12" s="3">
         <v>5000000</v>
@@ -8526,16 +8454,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -8544,7 +8472,7 @@
         <v>-10000000</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J13" s="3">
         <v>-10000000</v>
@@ -8552,31 +8480,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H14" s="3">
         <v>10000000</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J14" s="3">
         <v>10000000</v>
@@ -8584,31 +8512,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3">
         <v>-20000000</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J15" s="3">
         <v>-20000000</v>
@@ -8616,31 +8544,31 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3">
         <v>5000000</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J16" s="3">
         <v>5000000</v>
@@ -8660,29 +8588,29 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
         <v>1000000</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J18" s="3">
         <v>1000000</v>
@@ -8690,31 +8618,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H19" s="3">
         <v>-1000000</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J19" s="3">
         <v>-1000000</v>
@@ -8722,31 +8650,31 @@
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H20" s="3">
         <v>2000000</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J20" s="3">
         <v>2000000</v>
@@ -8754,28 +8682,28 @@
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H21" s="3">
         <v>-4000000</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J21" s="3">
         <v>-4000000</v>
@@ -8783,28 +8711,28 @@
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E22" s="3">
         <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H22" s="3">
         <v>-3000000</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J22" s="3">
         <v>-3000000</v>
@@ -8812,28 +8740,28 @@
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H23" s="3">
         <v>1000000</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J23" s="3">
         <v>1000000</v>
@@ -8841,28 +8769,28 @@
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E24" s="3">
         <v>7</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H24" s="3">
         <v>500000</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J24" s="3">
         <v>500000</v>
@@ -8870,28 +8798,28 @@
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E25" s="3">
         <v>7</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H25" s="3">
         <v>1400000</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J25" s="3">
         <v>1400000</v>
@@ -8899,28 +8827,28 @@
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E26" s="3">
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H26" s="3">
         <v>-1000000</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J26" s="3">
         <v>-1000000</v>
@@ -8928,28 +8856,28 @@
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H27" s="3">
         <v>-3000000</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J27" s="3">
         <v>-3000000</v>
@@ -8957,28 +8885,28 @@
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H28" s="3">
         <v>3000000</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J28" s="3">
         <v>3000000</v>
@@ -8987,28 +8915,28 @@
     <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H30" s="3">
         <v>2500000</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J30" s="3">
         <v>2500000</v>
@@ -9016,28 +8944,28 @@
     </row>
     <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H31" s="3">
         <v>-20000000</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J31" s="3">
         <v>-20000000</v>
@@ -9045,28 +8973,28 @@
     </row>
     <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H32" s="3">
         <v>5000000</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J32" s="3">
         <v>5000000</v>
@@ -9074,28 +9002,28 @@
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H33" s="3">
         <v>-10000000</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J33" s="3">
         <v>-10000000</v>
@@ -9103,28 +9031,28 @@
     </row>
     <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H34" s="3">
         <v>2500000</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J34" s="3">
         <v>2500000</v>
@@ -9132,28 +9060,28 @@
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H35" s="3">
         <v>1000000</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J35" s="3">
         <v>1000000</v>
@@ -9161,28 +9089,28 @@
     </row>
     <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H36" s="3">
         <v>-200000</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J36" s="3">
         <v>-200000</v>
@@ -9190,28 +9118,28 @@
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H37" s="3">
         <v>1000000</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J37" s="3">
         <v>1000000</v>
@@ -9219,28 +9147,28 @@
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H38" s="3">
         <v>-1000000</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J38" s="3">
         <v>-1000000</v>
@@ -9249,16 +9177,16 @@
     <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E40" s="3">
         <v>6</v>
@@ -9269,7 +9197,7 @@
         <v>20000000</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J40" s="3">
         <v>20000000</v>
@@ -9277,16 +9205,16 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E41" s="3">
         <v>7</v>
@@ -9297,7 +9225,7 @@
         <v>-40000000</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J41" s="3">
         <v>-40000000</v>
@@ -9305,16 +9233,16 @@
     </row>
     <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E42" s="3">
         <v>7</v>
@@ -9323,7 +9251,7 @@
         <v>10000000</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J42" s="3">
         <v>10000000</v>
@@ -9331,16 +9259,16 @@
     </row>
     <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E43" s="3">
         <v>3</v>
@@ -9349,7 +9277,7 @@
         <v>5000000</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J43" s="3">
         <v>5000000</v>
@@ -9357,16 +9285,16 @@
     </row>
     <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E44" s="3">
         <v>3</v>
@@ -9375,7 +9303,7 @@
         <v>2000000</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J44" s="3">
         <v>2000000</v>
@@ -9383,16 +9311,16 @@
     </row>
     <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E45" s="3">
         <v>3</v>
@@ -9401,7 +9329,7 @@
         <v>10000000</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J45" s="3">
         <v>10000000</v>
@@ -9409,16 +9337,16 @@
     </row>
     <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E46" s="3">
         <v>9</v>
@@ -9427,7 +9355,7 @@
         <v>1000000</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J46" s="3">
         <v>1000000</v>
@@ -9435,16 +9363,16 @@
     </row>
     <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E47" s="3">
         <v>9</v>
@@ -9453,7 +9381,7 @@
         <v>-2000000</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J47" s="3">
         <v>-2000000</v>
@@ -9461,16 +9389,16 @@
     </row>
     <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E48" s="3">
         <v>10</v>
@@ -9479,7 +9407,7 @@
         <v>30000000</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J48" s="3">
         <v>30000000</v>
@@ -9487,16 +9415,16 @@
     </row>
     <row r="49" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E49" s="3">
         <v>11</v>
@@ -9505,7 +9433,7 @@
         <v>-40000000</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J49" s="3">
         <v>-40000000</v>
@@ -9513,16 +9441,16 @@
     </row>
     <row r="50" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E50" s="3">
         <v>10</v>
@@ -9531,7 +9459,7 @@
         <v>-4000000</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J50" s="3">
         <v>-4000000</v>
@@ -9539,16 +9467,16 @@
     </row>
     <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>10</v>
@@ -9557,7 +9485,7 @@
         <v>20000000</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J51" s="3">
         <v>20000000</v>
@@ -9565,16 +9493,16 @@
     </row>
     <row r="52" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>10</v>
@@ -9583,7 +9511,7 @@
         <v>-10000000</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J52" s="3">
         <v>-10000000</v>
@@ -9603,16 +9531,16 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -9621,7 +9549,7 @@
         <v>1000000000</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J54" s="3">
         <v>1000000000</v>
@@ -9629,16 +9557,16 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -9647,7 +9575,7 @@
         <v>-1000000000</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J55" s="3">
         <v>-1000000000</v>
@@ -9655,16 +9583,16 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -9673,7 +9601,7 @@
         <v>-1500000000</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J56" s="3">
         <v>-1500000000</v>
@@ -9681,16 +9609,16 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -9699,7 +9627,7 @@
         <v>1500000000</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J57" s="3">
         <v>1500000000</v>
@@ -9707,16 +9635,16 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -9725,7 +9653,7 @@
         <v>6000000000</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J58" s="3">
         <v>6000000000</v>
@@ -9733,16 +9661,16 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -9751,7 +9679,7 @@
         <v>-6000000000</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J59" s="3">
         <v>-6000000000</v>
@@ -9759,16 +9687,16 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -9777,7 +9705,7 @@
         <v>-2300000000</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J60" s="3">
         <v>-2300000000</v>
@@ -9785,16 +9713,16 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -9803,7 +9731,7 @@
         <v>2300000000</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J61" s="3">
         <v>2300000000</v>
@@ -9823,16 +9751,16 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
@@ -9843,7 +9771,7 @@
         <v>20000000</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J63" s="3">
         <v>20000000</v>
@@ -9851,16 +9779,16 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E64" s="3">
         <v>15</v>
@@ -9871,7 +9799,7 @@
         <v>-40000000</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J64" s="3">
         <v>-40000000</v>
@@ -9879,16 +9807,16 @@
     </row>
     <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E65" s="3">
         <v>15</v>
@@ -9897,7 +9825,7 @@
         <v>10000000</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J65" s="3">
         <v>10000000</v>
@@ -9905,16 +9833,16 @@
     </row>
     <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E66" s="3">
         <v>8</v>
@@ -9923,7 +9851,7 @@
         <v>50000000</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J66" s="3">
         <v>50000000</v>
@@ -9931,16 +9859,16 @@
     </row>
     <row r="67" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E67" s="3">
         <v>8</v>
@@ -9949,7 +9877,7 @@
         <v>2000000</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J67" s="3">
         <v>2000000</v>
@@ -9957,16 +9885,16 @@
     </row>
     <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E68" s="3">
         <v>8</v>
@@ -9975,7 +9903,7 @@
         <v>10000000</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J68" s="3">
         <v>10000000</v>
@@ -9983,16 +9911,16 @@
     </row>
     <row r="69" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E69" s="3">
         <v>9</v>
@@ -10001,7 +9929,7 @@
         <v>1000000</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J69" s="3">
         <v>1000000</v>
@@ -10009,16 +9937,16 @@
     </row>
     <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E70" s="3">
         <v>9</v>
@@ -10027,7 +9955,7 @@
         <v>-2000000</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J70" s="3">
         <v>-2000000</v>
@@ -10035,16 +9963,16 @@
     </row>
     <row r="71" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E71" s="3">
         <v>12</v>
@@ -10053,7 +9981,7 @@
         <v>30000000</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J71" s="3">
         <v>30000000</v>
@@ -10061,16 +9989,16 @@
     </row>
     <row r="72" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E72" s="3">
         <v>12</v>
@@ -10079,7 +10007,7 @@
         <v>-40000000</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J72" s="3">
         <v>-40000000</v>
@@ -10087,16 +10015,16 @@
     </row>
     <row r="73" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E73" s="3">
         <v>12</v>
@@ -10105,7 +10033,7 @@
         <v>-4000000</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J73" s="3">
         <v>-4000000</v>
@@ -10125,27 +10053,27 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3">
         <v>500000000</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J75" s="3">
         <v>500000000</v>
@@ -10153,27 +10081,27 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3">
         <v>-500000000</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J76" s="3">
         <v>-500000000</v>
@@ -10181,27 +10109,27 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3">
         <v>300000000</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J77" s="3">
         <v>300000000</v>
@@ -10209,16 +10137,16 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
@@ -10229,7 +10157,7 @@
         <v>200000000</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J78" s="3">
         <v>200000000</v>
@@ -10237,27 +10165,27 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3">
         <v>-100000000</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J79" s="3">
         <v>-100000000</v>
@@ -10265,16 +10193,16 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
@@ -10285,7 +10213,7 @@
         <v>20000000</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J80" s="3">
         <v>20000000</v>
@@ -10293,16 +10221,16 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
@@ -10313,7 +10241,7 @@
         <v>150000000</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J81" s="3">
         <v>150000000</v>
@@ -10321,27 +10249,27 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3">
         <v>-100000000</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J82" s="3">
         <v>-100000000</v>
@@ -10350,28 +10278,28 @@
     <row r="83" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H84" s="3">
         <v>200000000</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J84" s="3">
         <v>200000000</v>
@@ -10379,28 +10307,28 @@
     </row>
     <row r="85" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H85" s="3">
         <v>-500000000</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J85" s="3">
         <v>-500000000</v>
@@ -10408,28 +10336,28 @@
     </row>
     <row r="86" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H86" s="3">
         <v>300000000</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J86" s="3">
         <v>300000000</v>
@@ -10437,28 +10365,28 @@
     </row>
     <row r="87" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H87" s="3">
         <v>200000000</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J87" s="3">
         <v>200000000</v>
@@ -10466,28 +10394,28 @@
     </row>
     <row r="88" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H88" s="3">
         <v>-100000000</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J88" s="3">
         <v>-100000000</v>
@@ -10495,28 +10423,28 @@
     </row>
     <row r="89" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E89" s="3">
         <v>1</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H89" s="3">
         <v>300000000</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J89" s="3">
         <v>300000000</v>
@@ -10524,28 +10452,28 @@
     </row>
     <row r="90" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E90" s="3">
         <v>2</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H90" s="3">
         <v>250000000</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J90" s="3">
         <v>250000000</v>
@@ -10553,28 +10481,28 @@
     </row>
     <row r="91" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E91" s="3">
         <v>2</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H91" s="3">
         <v>-200000000</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J91" s="3">
         <v>-200000000</v>
@@ -10583,29 +10511,29 @@
     <row r="92" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3">
         <v>25000000</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J93" s="3">
         <v>25000000</v>
@@ -10613,29 +10541,29 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3">
         <v>-60000000</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J94" s="3">
         <v>-60000000</v>
@@ -10643,29 +10571,29 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3">
         <v>40000000</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J95" s="3">
         <v>40000000</v>
@@ -10673,29 +10601,29 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3">
         <v>30000000</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J96" s="3">
         <v>30000000</v>
@@ -10703,29 +10631,29 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3">
         <v>-15000000</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J97" s="3">
         <v>-15000000</v>
@@ -10733,29 +10661,29 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3">
         <v>60000000</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J98" s="3">
         <v>60000000</v>
@@ -10763,29 +10691,29 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E99" s="3">
         <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3">
         <v>50000000</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J99" s="3">
         <v>50000000</v>
@@ -10793,29 +10721,29 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E100" s="3">
         <v>2</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3">
         <v>-30000000</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J100" s="3">
         <v>-30000000</v>
@@ -10835,16 +10763,16 @@
     </row>
     <row r="102" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E102" s="3">
         <v>7</v>
@@ -10856,7 +10784,7 @@
         <v>50000000</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J102" s="3">
         <v>50000000</v>
@@ -10864,16 +10792,16 @@
     </row>
     <row r="103" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E103" s="3">
         <v>9</v>
@@ -10885,7 +10813,7 @@
         <v>-400000000</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J103" s="3">
         <v>-400000000</v>
@@ -10893,28 +10821,28 @@
     </row>
     <row r="104" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E104" s="3">
         <v>9</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H104" s="3">
         <v>30000000</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J104" s="3">
         <v>30000000</v>
@@ -10922,16 +10850,16 @@
     </row>
     <row r="105" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>604</v>
-      </c>
       <c r="D105" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E105" s="3">
         <v>11</v>
@@ -10943,7 +10871,7 @@
         <v>120000000</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J105" s="3">
         <v>120000000</v>
@@ -10951,16 +10879,16 @@
     </row>
     <row r="106" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E106" s="3">
         <v>11</v>
@@ -10972,7 +10900,7 @@
         <v>-10000000</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J106" s="3">
         <v>-10000000</v>
@@ -10980,16 +10908,16 @@
     </row>
     <row r="107" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E107" s="3">
         <v>7</v>
@@ -11001,7 +10929,7 @@
         <v>100000000</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J107" s="3">
         <v>100000000</v>
@@ -11010,16 +10938,16 @@
     <row r="108" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="s">
@@ -11030,7 +10958,7 @@
         <v>10000000</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J109" s="3">
         <v>10000000</v>
@@ -11038,16 +10966,16 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
@@ -11058,7 +10986,7 @@
         <v>-50000000</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J110" s="3">
         <v>-50000000</v>
@@ -11066,27 +10994,27 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3">
         <v>4500000</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J111" s="3">
         <v>4500000</v>
@@ -11094,16 +11022,16 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3" t="s">
@@ -11114,7 +11042,7 @@
         <v>20000000</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J112" s="3">
         <v>20000000</v>
@@ -11122,16 +11050,16 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3" t="s">
@@ -11142,7 +11070,7 @@
         <v>-10000000</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J113" s="3">
         <v>-10000000</v>
@@ -11150,27 +11078,27 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3">
         <v>90000000</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J114" s="3">
         <v>90000000</v>
@@ -11178,16 +11106,16 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B116" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C116" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D116" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -11199,7 +11127,7 @@
         <v>14000000</v>
       </c>
       <c r="I116" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J116">
         <v>14000000</v>
@@ -11207,16 +11135,16 @@
     </row>
     <row r="117" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E117" s="3">
         <v>2</v>
@@ -11228,7 +11156,7 @@
         <v>-20000000</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J117" s="3">
         <v>-20000000</v>
@@ -11236,28 +11164,28 @@
     </row>
     <row r="118" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E118" s="3">
         <v>12</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H118" s="3">
         <v>3000000</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J118" s="3">
         <v>3000000</v>
@@ -11265,16 +11193,16 @@
     </row>
     <row r="119" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E119" s="3">
         <v>12</v>
@@ -11286,7 +11214,7 @@
         <v>20000000</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J119" s="3">
         <v>20000000</v>
@@ -11294,16 +11222,16 @@
     </row>
     <row r="120" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E120" s="3">
         <v>16</v>
@@ -11315,7 +11243,7 @@
         <v>-40000000</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J120" s="3">
         <v>-40000000</v>
@@ -11323,16 +11251,16 @@
     </row>
     <row r="121" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E121" s="3">
         <v>15</v>
@@ -11344,7 +11272,7 @@
         <v>30000000</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J121" s="3">
         <v>30000000</v>
@@ -11370,7 +11298,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -11394,7 +11322,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1">
         <v>2.2499999999999999E-2</v>
@@ -11402,7 +11330,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>1.8800000000000001E-2</v>
@@ -11410,7 +11338,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B6">
         <v>1.7299999999999999E-2</v>
@@ -11418,7 +11346,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>1.4999999999999999E-2</v>
@@ -11426,7 +11354,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>1.4999999999999999E-2</v>
@@ -11434,7 +11362,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B9">
         <v>1.4999999999999999E-2</v>
@@ -11442,7 +11370,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>1.4999999999999999E-2</v>
@@ -11450,7 +11378,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B11" s="3">
         <v>1.4999999999999999E-2</v>
@@ -12152,7 +12080,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B2" s="3">
         <v>1000000</v>
@@ -12163,7 +12091,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B3" s="3">
         <v>360000</v>
@@ -12174,7 +12102,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B4" s="3">
         <v>360000</v>

--- a/frtb_config.xlsx
+++ b/frtb_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="run_cases" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="685">
   <si>
     <t>2w</t>
   </si>
@@ -2072,6 +2072,21 @@
   </si>
   <si>
     <t>CADUSD</t>
+  </si>
+  <si>
+    <t>Risk_FXVega</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>1Y</t>
+  </si>
+  <si>
+    <t>5Y</t>
   </si>
 </sst>
 </file>
@@ -2909,7 +2924,7 @@
   <dimension ref="A1:C315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,9 +3072,6 @@
       <c r="B17" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -3067,6 +3079,9 @@
       </c>
       <c r="B18" s="3" t="s">
         <v>123</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -7626,7 +7641,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -7779,10 +7794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7856,7 +7871,7 @@
         <v>659</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>681</v>
       </c>
       <c r="I2" s="3">
         <v>10.388946000000001</v>
@@ -7885,7 +7900,7 @@
         <v>659</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>2</v>
+        <v>682</v>
       </c>
       <c r="I3" s="3">
         <v>-5.8568020000000001</v>
@@ -7914,7 +7929,7 @@
         <v>669</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1</v>
+        <v>681</v>
       </c>
       <c r="I4" s="3">
         <v>-8.0400000000000003E-3</v>
@@ -7940,10 +7955,10 @@
         <v>658</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>2</v>
+        <v>682</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>32</v>
+        <v>684</v>
       </c>
       <c r="I5" s="3">
         <v>-1.0331999999999999E-2</v>
@@ -8053,6 +8068,64 @@
         <v>1400.393421</v>
       </c>
       <c r="L10" s="3">
+        <v>1386.528139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1386.528139</v>
+      </c>
+      <c r="J11" s="3">
+        <v>72.071212000000003</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1400.393421</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1386.528139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1386.528139</v>
+      </c>
+      <c r="J12" s="3">
+        <v>72.071212000000003</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1400.393421</v>
+      </c>
+      <c r="L12" s="3">
         <v>1386.528139</v>
       </c>
     </row>

--- a/frtb_config.xlsx
+++ b/frtb_config.xlsx
@@ -4,35 +4,34 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="run_cases" sheetId="10" r:id="rId1"/>
     <sheet name="inputs" sheetId="23" r:id="rId2"/>
     <sheet name="simm_input" sheetId="9" r:id="rId3"/>
     <sheet name="IR_weights" sheetId="1" r:id="rId4"/>
-    <sheet name="CreditQ_weights" sheetId="4" r:id="rId5"/>
-    <sheet name="CreditQ_correlation" sheetId="5" r:id="rId6"/>
-    <sheet name="CreditQ_CR_THR" sheetId="6" r:id="rId7"/>
-    <sheet name="CreditNonQ_weights" sheetId="11" r:id="rId8"/>
-    <sheet name="CreditNonQ_correlation" sheetId="12" r:id="rId9"/>
-    <sheet name="CreditNonQ_CR_THR" sheetId="13" r:id="rId10"/>
-    <sheet name="Equity_weights" sheetId="14" r:id="rId11"/>
-    <sheet name="Equity_correlation" sheetId="15" r:id="rId12"/>
-    <sheet name="Equity_in_bucket_correlation" sheetId="16" r:id="rId13"/>
-    <sheet name="Equity_CR_THR" sheetId="17" r:id="rId14"/>
-    <sheet name="Commodity_weights" sheetId="18" r:id="rId15"/>
-    <sheet name="Commodity_correlation" sheetId="19" r:id="rId16"/>
-    <sheet name="Commodity_in_bucket_correlation" sheetId="20" r:id="rId17"/>
-    <sheet name="Commodity_CR_THR" sheetId="21" r:id="rId18"/>
-    <sheet name="Risk_class_correlation" sheetId="22" r:id="rId19"/>
+    <sheet name="CSR_weights" sheetId="4" r:id="rId5"/>
+    <sheet name="CSR_correlation" sheetId="5" r:id="rId6"/>
+    <sheet name="CreditNonQ_weights" sheetId="11" r:id="rId7"/>
+    <sheet name="CreditNonQ_correlation" sheetId="12" r:id="rId8"/>
+    <sheet name="CreditNonQ_CR_THR" sheetId="13" r:id="rId9"/>
+    <sheet name="Equity_weights" sheetId="14" r:id="rId10"/>
+    <sheet name="Equity_correlation" sheetId="15" r:id="rId11"/>
+    <sheet name="Equity_in_bucket_correlation" sheetId="16" r:id="rId12"/>
+    <sheet name="Equity_CR_THR" sheetId="17" r:id="rId13"/>
+    <sheet name="Commodity_weights" sheetId="18" r:id="rId14"/>
+    <sheet name="Commodity_correlation" sheetId="19" r:id="rId15"/>
+    <sheet name="Commodity_in_bucket_correlation" sheetId="20" r:id="rId16"/>
+    <sheet name="Commodity_CR_THR" sheetId="21" r:id="rId17"/>
+    <sheet name="Risk_class_correlation" sheetId="22" r:id="rId18"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="690">
   <si>
     <t>2w</t>
   </si>
@@ -67,9 +66,6 @@
     <t>Residual</t>
   </si>
   <si>
-    <t>Qualifying</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -340,9 +336,6 @@
     <t>CombinationID</t>
   </si>
   <si>
-    <t>S_IR_1,S_IR_2</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
@@ -445,15 +438,9 @@
     <t>x</t>
   </si>
   <si>
-    <t>S_IR_2,S_IR_4</t>
-  </si>
-  <si>
     <t>S_IR_10,S_IR_11</t>
   </si>
   <si>
-    <t>S_IR_5,S_IR_7</t>
-  </si>
-  <si>
     <t>S_IR_1,S_IR_5,S_IR_6</t>
   </si>
   <si>
@@ -1399,18 +1386,9 @@
     <t>Sec</t>
   </si>
   <si>
-    <t>Sovereigns including central banks</t>
-  </si>
-  <si>
-    <t>Corporate entities</t>
-  </si>
-  <si>
     <t>Not classified</t>
   </si>
   <si>
-    <t>S_CRQ_1,S_CRQ_2</t>
-  </si>
-  <si>
     <t>S_CRQ_3</t>
   </si>
   <si>
@@ -1453,9 +1431,6 @@
     <t>ISIN:UNKNOWN2</t>
   </si>
   <si>
-    <t>S_CRQ_7,S_CRQ_8</t>
-  </si>
-  <si>
     <t>S_CRQ_2,S_CRQ_4</t>
   </si>
   <si>
@@ -2087,12 +2062,54 @@
   </si>
   <si>
     <t>5Y</t>
+  </si>
+  <si>
+    <t>security_id</t>
+  </si>
+  <si>
+    <t>COAL3119966</t>
+  </si>
+  <si>
+    <t>CO078149DK4</t>
+  </si>
+  <si>
+    <t>S_IR_2,S_IR_7</t>
+  </si>
+  <si>
+    <t>S_IR_5,S_IR_6</t>
+  </si>
+  <si>
+    <t>S_IR_1,S_IR_2,S_IR_3,S_IR_5,S_IR_6,S_IR_7,S_IR_8,S_IR_9</t>
+  </si>
+  <si>
+    <t>S_CSR_1</t>
+  </si>
+  <si>
+    <t>Risk_CSRDelta</t>
+  </si>
+  <si>
+    <t>S_CSR_2</t>
+  </si>
+  <si>
+    <t>S_CSR_1,S_CSR_2</t>
+  </si>
+  <si>
+    <t>issuer_id</t>
+  </si>
+  <si>
+    <t>S_CSR_3</t>
+  </si>
+  <si>
+    <t>S_CSR_1,S_CSR_2, S_CSR_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2527,7 +2544,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2570,8 +2587,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2579,8 +2597,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2620,6 +2639,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -2923,8 +2943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C315"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,2183 +2956,2186 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>680</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>102</v>
+        <v>682</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>139</v>
+        <v>681</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>58</v>
+        <v>683</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>62</v>
+        <v>685</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B52" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B73" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B87" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B88" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B89" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B155" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B167" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B168" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B183" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B198" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B210" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -5121,82 +5144,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="B2" s="3">
-        <v>9500000</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="B3" s="3">
-        <v>500000</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4" s="3">
-        <v>500000</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B5" s="3">
-        <v>49000000</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5329,7 +5276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5771,7 +5718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5789,7 +5736,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5893,7 +5840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5923,7 +5870,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B2" s="3">
         <v>3100000</v>
@@ -5934,7 +5881,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B3" s="3">
         <v>31000000</v>
@@ -5945,7 +5892,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B4" s="3">
         <v>700000</v>
@@ -5956,7 +5903,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B5" s="3">
         <v>2100000</v>
@@ -5967,7 +5914,7 @@
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B6" s="3">
         <v>690000000</v>
@@ -5978,7 +5925,7 @@
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B7" s="3">
         <v>700000</v>
@@ -5989,7 +5936,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B8" s="3">
         <v>1100000000</v>
@@ -6000,7 +5947,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B9" s="3">
         <v>11000000000</v>
@@ -6011,7 +5958,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B10" s="3">
         <v>170000000</v>
@@ -6022,7 +5969,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B11" s="3">
         <v>500000000</v>
@@ -6033,7 +5980,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B12" s="3">
         <v>39000000000</v>
@@ -6044,7 +5991,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B13" s="3">
         <v>170000000</v>
@@ -6058,7 +6005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -6227,7 +6174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -7095,7 +7042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -7113,7 +7060,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7249,7 +7196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -7279,7 +7226,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B2" s="3">
         <v>700000000</v>
@@ -7290,7 +7237,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B3" s="3">
         <v>23000000000</v>
@@ -7301,7 +7248,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B4" s="3">
         <v>3200000000</v>
@@ -7312,7 +7259,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B5" s="3">
         <v>3800000000</v>
@@ -7323,7 +7270,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B6" s="3">
         <v>1800000000</v>
@@ -7334,7 +7281,7 @@
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B7" s="3">
         <v>6500000000</v>
@@ -7345,7 +7292,7 @@
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B8" s="3">
         <v>400000000</v>
@@ -7356,7 +7303,7 @@
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B9" s="3">
         <v>45000000</v>
@@ -7367,7 +7314,7 @@
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B10" s="3">
         <v>300000000</v>
@@ -7378,7 +7325,7 @@
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B11" s="3">
         <v>1200000</v>
@@ -7389,7 +7336,7 @@
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B12" s="3">
         <v>1800000000</v>
@@ -7400,7 +7347,7 @@
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B13" s="3">
         <v>5600000000</v>
@@ -7411,7 +7358,7 @@
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B14" s="3">
         <v>480000000</v>
@@ -7422,7 +7369,7 @@
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B15" s="3">
         <v>750000000</v>
@@ -7433,7 +7380,7 @@
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B16" s="3">
         <v>3500000</v>
@@ -7444,7 +7391,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B17" s="3">
         <v>1200000</v>
@@ -7455,7 +7402,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B18" s="3">
         <v>4900000</v>
@@ -7466,7 +7413,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B19" s="3">
         <v>1900000000</v>
@@ -7477,7 +7424,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B20" s="3">
         <v>330000000</v>
@@ -7488,7 +7435,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B21" s="3">
         <v>590000000</v>
@@ -7499,7 +7446,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B22" s="3">
         <v>590000000</v>
@@ -7510,7 +7457,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B23" s="3">
         <v>560000000</v>
@@ -7521,7 +7468,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B24">
         <v>350000000</v>
@@ -7532,7 +7479,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B25">
         <v>120000000</v>
@@ -7543,7 +7490,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B26">
         <v>330000000</v>
@@ -7554,7 +7501,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B27">
         <v>110000000</v>
@@ -7565,7 +7512,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B28">
         <v>400000000</v>
@@ -7576,7 +7523,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B29">
         <v>420000000</v>
@@ -7587,7 +7534,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B30">
         <v>56000000</v>
@@ -7598,7 +7545,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B31">
         <v>66000000</v>
@@ -7609,7 +7556,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B32">
         <v>26000000</v>
@@ -7620,7 +7567,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B33">
         <v>27000000</v>
@@ -7634,7 +7581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7649,22 +7596,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7794,338 +7741,559 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10.388946000000001</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1035.6252489999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1035.6242099999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-5.8568020000000001</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1035.6236240000001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1035.6242099999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="K4" s="3">
+        <v>-8.0400000000000003E-3</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1035.6242090000001</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1035.6242099999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="I2" s="3">
-        <v>10.388946000000001</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1035.6252489999999</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="G5" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-1.0331999999999999E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>72.071212000000003</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1042.6269050000001</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1042.6372369999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-0.57004999999999995</v>
+      </c>
+      <c r="M6" s="3">
+        <v>898.81209999999999</v>
+      </c>
+      <c r="N6" s="3">
         <v>1035.6242099999999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="I3" s="3">
-        <v>-5.8568020000000001</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1035.6236240000001</v>
-      </c>
-      <c r="L3" s="3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-0.65703599999999995</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1193.3128200000001</v>
+      </c>
+      <c r="N7" s="3">
         <v>1035.6242099999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="F4" s="3" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="K8" s="3">
+        <v>-6.3654500000000001</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1042.484093</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1042.4848460000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-6.3654500000000001</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1042.484093</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1042.4848460000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-6.3654500000000001</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1042.484093</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1042.4848460000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="K12" s="3">
+        <v>-7.533881</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1042.484093</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1042.4848460000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="K13" s="3">
+        <v>-24.221287</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1042.482424</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1042.4848460000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="G14" s="3">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-24.221287</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1042.482424</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1042.4848460000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="I4" s="3">
-        <v>-8.0400000000000003E-3</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1035.6242090000001</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1035.6242099999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="G16" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1386.528139</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1400.393421</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1386.528139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="I5" s="3">
-        <v>-1.0331999999999999E-2</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="K17" s="3">
+        <v>1386.528139</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1400.393421</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1386.528139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1386.528139</v>
+      </c>
+      <c r="L18" s="3">
         <v>72.071212000000003</v>
       </c>
-      <c r="K5" s="3">
-        <v>1042.6269050000001</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1042.6372369999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="M18" s="3">
+        <v>1400.393421</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1386.528139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="I6" s="3">
-        <v>-0.57004999999999995</v>
-      </c>
-      <c r="K6" s="3">
-        <v>898.81209999999999</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1035.6242099999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="I7" s="3">
-        <v>-0.65703599999999995</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1193.3128200000001</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1035.6242099999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="K19" s="3">
         <v>1386.528139</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L19" s="3">
+        <v>72.071212000000003</v>
+      </c>
+      <c r="M19" s="3">
         <v>1400.393421</v>
       </c>
-      <c r="L9" s="3">
-        <v>1386.528139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1386.528139</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1400.393421</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1386.528139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1386.528139</v>
-      </c>
-      <c r="J11" s="3">
-        <v>72.071212000000003</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1400.393421</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1386.528139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1386.528139</v>
-      </c>
-      <c r="J12" s="3">
-        <v>72.071212000000003</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1400.393421</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="N19" s="3">
         <v>1386.528139</v>
       </c>
     </row>
@@ -8139,8 +8307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8155,63 +8323,63 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H2" s="3">
         <v>10000000</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="3">
         <v>10000000</v>
@@ -8219,31 +8387,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H3" s="3">
         <v>-15000000</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3">
         <v>-15000000</v>
@@ -8251,31 +8419,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="H4" s="3">
         <v>5000000</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="3">
         <v>5000000</v>
@@ -8283,16 +8451,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -8301,7 +8469,7 @@
         <v>-10000000</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="3">
         <v>-10000000</v>
@@ -8309,31 +8477,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H6" s="3">
         <v>-20000000</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="3">
         <v>-20000000</v>
@@ -8341,31 +8509,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3">
         <v>5000000</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="3">
         <v>5000000</v>
@@ -8373,16 +8541,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -8391,7 +8559,7 @@
         <v>10000000</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="3">
         <v>10000000</v>
@@ -8399,16 +8567,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -8417,13 +8585,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="3">
         <v>-20000000</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="3">
         <v>-20000000</v>
@@ -8431,16 +8599,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
@@ -8449,13 +8617,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3">
         <v>10000000</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="3">
         <v>10000000</v>
@@ -8463,31 +8631,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H11" s="3">
         <v>5000000</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="3">
         <v>5000000</v>
@@ -8495,31 +8663,31 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="3">
         <v>5000000</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="3">
         <v>5000000</v>
@@ -8527,16 +8695,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -8545,7 +8713,7 @@
         <v>-10000000</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="3">
         <v>-10000000</v>
@@ -8553,31 +8721,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H14" s="3">
         <v>10000000</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="3">
         <v>10000000</v>
@@ -8585,31 +8753,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H15" s="3">
         <v>-20000000</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="3">
         <v>-20000000</v>
@@ -8617,31 +8785,31 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="3">
         <v>5000000</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="3">
         <v>5000000</v>
@@ -8661,29 +8829,29 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
         <v>1000000</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" s="3">
         <v>1000000</v>
@@ -8691,31 +8859,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H19" s="3">
         <v>-1000000</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="3">
         <v>-1000000</v>
@@ -8723,31 +8891,31 @@
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H20" s="3">
         <v>2000000</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J20" s="3">
         <v>2000000</v>
@@ -8755,28 +8923,28 @@
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="3">
         <v>-4000000</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J21" s="3">
         <v>-4000000</v>
@@ -8784,28 +8952,28 @@
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E22" s="3">
         <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" s="3">
         <v>-3000000</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J22" s="3">
         <v>-3000000</v>
@@ -8813,28 +8981,28 @@
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="3">
         <v>1000000</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J23" s="3">
         <v>1000000</v>
@@ -8842,28 +9010,28 @@
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E24" s="3">
         <v>7</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24" s="3">
         <v>500000</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" s="3">
         <v>500000</v>
@@ -8871,28 +9039,28 @@
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E25" s="3">
         <v>7</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25" s="3">
         <v>1400000</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" s="3">
         <v>1400000</v>
@@ -8900,28 +9068,28 @@
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E26" s="3">
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="3">
         <v>-1000000</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J26" s="3">
         <v>-1000000</v>
@@ -8929,28 +9097,28 @@
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H27" s="3">
         <v>-3000000</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J27" s="3">
         <v>-3000000</v>
@@ -8958,28 +9126,28 @@
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" s="3">
         <v>3000000</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J28" s="3">
         <v>3000000</v>
@@ -8988,28 +9156,28 @@
     <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30" s="3">
         <v>2500000</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J30" s="3">
         <v>2500000</v>
@@ -9017,28 +9185,28 @@
     </row>
     <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31" s="3">
         <v>-20000000</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J31" s="3">
         <v>-20000000</v>
@@ -9046,28 +9214,28 @@
     </row>
     <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H32" s="3">
         <v>5000000</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J32" s="3">
         <v>5000000</v>
@@ -9075,28 +9243,28 @@
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H33" s="3">
         <v>-10000000</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33" s="3">
         <v>-10000000</v>
@@ -9104,28 +9272,28 @@
     </row>
     <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H34" s="3">
         <v>2500000</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J34" s="3">
         <v>2500000</v>
@@ -9133,28 +9301,28 @@
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H35" s="3">
         <v>1000000</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J35" s="3">
         <v>1000000</v>
@@ -9162,28 +9330,28 @@
     </row>
     <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" s="3">
         <v>-200000</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J36" s="3">
         <v>-200000</v>
@@ -9191,28 +9359,28 @@
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H37" s="3">
         <v>1000000</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J37" s="3">
         <v>1000000</v>
@@ -9220,28 +9388,28 @@
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38" s="3">
         <v>-1000000</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J38" s="3">
         <v>-1000000</v>
@@ -9250,16 +9418,16 @@
     <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E40" s="3">
         <v>6</v>
@@ -9270,7 +9438,7 @@
         <v>20000000</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J40" s="3">
         <v>20000000</v>
@@ -9278,16 +9446,16 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E41" s="3">
         <v>7</v>
@@ -9298,7 +9466,7 @@
         <v>-40000000</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J41" s="3">
         <v>-40000000</v>
@@ -9306,16 +9474,16 @@
     </row>
     <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E42" s="3">
         <v>7</v>
@@ -9324,7 +9492,7 @@
         <v>10000000</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J42" s="3">
         <v>10000000</v>
@@ -9332,16 +9500,16 @@
     </row>
     <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E43" s="3">
         <v>3</v>
@@ -9350,7 +9518,7 @@
         <v>5000000</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J43" s="3">
         <v>5000000</v>
@@ -9358,16 +9526,16 @@
     </row>
     <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E44" s="3">
         <v>3</v>
@@ -9376,7 +9544,7 @@
         <v>2000000</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J44" s="3">
         <v>2000000</v>
@@ -9384,16 +9552,16 @@
     </row>
     <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E45" s="3">
         <v>3</v>
@@ -9402,7 +9570,7 @@
         <v>10000000</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J45" s="3">
         <v>10000000</v>
@@ -9410,16 +9578,16 @@
     </row>
     <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="E46" s="3">
         <v>9</v>
@@ -9428,7 +9596,7 @@
         <v>1000000</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J46" s="3">
         <v>1000000</v>
@@ -9436,16 +9604,16 @@
     </row>
     <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E47" s="3">
         <v>9</v>
@@ -9454,7 +9622,7 @@
         <v>-2000000</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J47" s="3">
         <v>-2000000</v>
@@ -9462,16 +9630,16 @@
     </row>
     <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="E48" s="3">
         <v>10</v>
@@ -9480,7 +9648,7 @@
         <v>30000000</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J48" s="3">
         <v>30000000</v>
@@ -9488,16 +9656,16 @@
     </row>
     <row r="49" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E49" s="3">
         <v>11</v>
@@ -9506,7 +9674,7 @@
         <v>-40000000</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J49" s="3">
         <v>-40000000</v>
@@ -9514,16 +9682,16 @@
     </row>
     <row r="50" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E50" s="3">
         <v>10</v>
@@ -9532,7 +9700,7 @@
         <v>-4000000</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J50" s="3">
         <v>-4000000</v>
@@ -9540,16 +9708,16 @@
     </row>
     <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>10</v>
@@ -9558,7 +9726,7 @@
         <v>20000000</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J51" s="3">
         <v>20000000</v>
@@ -9566,16 +9734,16 @@
     </row>
     <row r="52" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>10</v>
@@ -9584,7 +9752,7 @@
         <v>-10000000</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J52" s="3">
         <v>-10000000</v>
@@ -9604,16 +9772,16 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -9622,7 +9790,7 @@
         <v>1000000000</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J54" s="3">
         <v>1000000000</v>
@@ -9630,16 +9798,16 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -9648,7 +9816,7 @@
         <v>-1000000000</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J55" s="3">
         <v>-1000000000</v>
@@ -9656,16 +9824,16 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -9674,7 +9842,7 @@
         <v>-1500000000</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J56" s="3">
         <v>-1500000000</v>
@@ -9682,16 +9850,16 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -9700,7 +9868,7 @@
         <v>1500000000</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J57" s="3">
         <v>1500000000</v>
@@ -9708,16 +9876,16 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -9726,7 +9894,7 @@
         <v>6000000000</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J58" s="3">
         <v>6000000000</v>
@@ -9734,16 +9902,16 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -9752,7 +9920,7 @@
         <v>-6000000000</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J59" s="3">
         <v>-6000000000</v>
@@ -9760,16 +9928,16 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -9778,7 +9946,7 @@
         <v>-2300000000</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J60" s="3">
         <v>-2300000000</v>
@@ -9786,16 +9954,16 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -9804,7 +9972,7 @@
         <v>2300000000</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J61" s="3">
         <v>2300000000</v>
@@ -9824,16 +9992,16 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D63" s="3" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
@@ -9844,7 +10012,7 @@
         <v>20000000</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J63" s="3">
         <v>20000000</v>
@@ -9852,16 +10020,16 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="E64" s="3">
         <v>15</v>
@@ -9872,7 +10040,7 @@
         <v>-40000000</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J64" s="3">
         <v>-40000000</v>
@@ -9880,16 +10048,16 @@
     </row>
     <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="E65" s="3">
         <v>15</v>
@@ -9898,7 +10066,7 @@
         <v>10000000</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J65" s="3">
         <v>10000000</v>
@@ -9906,16 +10074,16 @@
     </row>
     <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E66" s="3">
         <v>8</v>
@@ -9924,7 +10092,7 @@
         <v>50000000</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J66" s="3">
         <v>50000000</v>
@@ -9932,16 +10100,16 @@
     </row>
     <row r="67" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E67" s="3">
         <v>8</v>
@@ -9950,7 +10118,7 @@
         <v>2000000</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J67" s="3">
         <v>2000000</v>
@@ -9958,16 +10126,16 @@
     </row>
     <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="E68" s="3">
         <v>8</v>
@@ -9976,7 +10144,7 @@
         <v>10000000</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J68" s="3">
         <v>10000000</v>
@@ -9984,16 +10152,16 @@
     </row>
     <row r="69" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E69" s="3">
         <v>9</v>
@@ -10002,7 +10170,7 @@
         <v>1000000</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J69" s="3">
         <v>1000000</v>
@@ -10010,16 +10178,16 @@
     </row>
     <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="E70" s="3">
         <v>9</v>
@@ -10028,7 +10196,7 @@
         <v>-2000000</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J70" s="3">
         <v>-2000000</v>
@@ -10036,16 +10204,16 @@
     </row>
     <row r="71" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E71" s="3">
         <v>12</v>
@@ -10054,7 +10222,7 @@
         <v>30000000</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J71" s="3">
         <v>30000000</v>
@@ -10062,16 +10230,16 @@
     </row>
     <row r="72" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="E72" s="3">
         <v>12</v>
@@ -10080,7 +10248,7 @@
         <v>-40000000</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J72" s="3">
         <v>-40000000</v>
@@ -10088,16 +10256,16 @@
     </row>
     <row r="73" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="E73" s="3">
         <v>12</v>
@@ -10106,7 +10274,7 @@
         <v>-4000000</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J73" s="3">
         <v>-4000000</v>
@@ -10126,27 +10294,27 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D75" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3">
         <v>500000000</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J75" s="3">
         <v>500000000</v>
@@ -10154,27 +10322,27 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3">
         <v>-500000000</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J76" s="3">
         <v>-500000000</v>
@@ -10182,27 +10350,27 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3">
         <v>300000000</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J77" s="3">
         <v>300000000</v>
@@ -10210,16 +10378,16 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
@@ -10230,7 +10398,7 @@
         <v>200000000</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J78" s="3">
         <v>200000000</v>
@@ -10238,27 +10406,27 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3">
         <v>-100000000</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J79" s="3">
         <v>-100000000</v>
@@ -10266,16 +10434,16 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
@@ -10286,7 +10454,7 @@
         <v>20000000</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J80" s="3">
         <v>20000000</v>
@@ -10294,16 +10462,16 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
@@ -10314,7 +10482,7 @@
         <v>150000000</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J81" s="3">
         <v>150000000</v>
@@ -10322,27 +10490,27 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3">
         <v>-100000000</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J82" s="3">
         <v>-100000000</v>
@@ -10351,28 +10519,28 @@
     <row r="83" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H84" s="3">
         <v>200000000</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J84" s="3">
         <v>200000000</v>
@@ -10380,28 +10548,28 @@
     </row>
     <row r="85" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H85" s="3">
         <v>-500000000</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J85" s="3">
         <v>-500000000</v>
@@ -10409,28 +10577,28 @@
     </row>
     <row r="86" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H86" s="3">
         <v>300000000</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J86" s="3">
         <v>300000000</v>
@@ -10438,28 +10606,28 @@
     </row>
     <row r="87" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H87" s="3">
         <v>200000000</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J87" s="3">
         <v>200000000</v>
@@ -10467,28 +10635,28 @@
     </row>
     <row r="88" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H88" s="3">
         <v>-100000000</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J88" s="3">
         <v>-100000000</v>
@@ -10496,28 +10664,28 @@
     </row>
     <row r="89" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="E89" s="3">
         <v>1</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H89" s="3">
         <v>300000000</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J89" s="3">
         <v>300000000</v>
@@ -10525,28 +10693,28 @@
     </row>
     <row r="90" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E90" s="3">
         <v>2</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H90" s="3">
         <v>250000000</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J90" s="3">
         <v>250000000</v>
@@ -10554,28 +10722,28 @@
     </row>
     <row r="91" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E91" s="3">
         <v>2</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H91" s="3">
         <v>-200000000</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J91" s="3">
         <v>-200000000</v>
@@ -10584,29 +10752,29 @@
     <row r="92" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3">
         <v>25000000</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J93" s="3">
         <v>25000000</v>
@@ -10614,29 +10782,29 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3">
         <v>-60000000</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J94" s="3">
         <v>-60000000</v>
@@ -10644,29 +10812,29 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3">
         <v>40000000</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J95" s="3">
         <v>40000000</v>
@@ -10674,29 +10842,29 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3">
         <v>30000000</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J96" s="3">
         <v>30000000</v>
@@ -10704,29 +10872,29 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3">
         <v>-15000000</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J97" s="3">
         <v>-15000000</v>
@@ -10734,29 +10902,29 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3">
         <v>60000000</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J98" s="3">
         <v>60000000</v>
@@ -10764,29 +10932,29 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E99" s="3">
         <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3">
         <v>50000000</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J99" s="3">
         <v>50000000</v>
@@ -10794,29 +10962,29 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E100" s="3">
         <v>2</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3">
         <v>-30000000</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J100" s="3">
         <v>-30000000</v>
@@ -10836,16 +11004,16 @@
     </row>
     <row r="102" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E102" s="3">
         <v>7</v>
@@ -10857,7 +11025,7 @@
         <v>50000000</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J102" s="3">
         <v>50000000</v>
@@ -10865,16 +11033,16 @@
     </row>
     <row r="103" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E103" s="3">
         <v>9</v>
@@ -10886,7 +11054,7 @@
         <v>-400000000</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J103" s="3">
         <v>-400000000</v>
@@ -10894,28 +11062,28 @@
     </row>
     <row r="104" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E104" s="3">
         <v>9</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H104" s="3">
         <v>30000000</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J104" s="3">
         <v>30000000</v>
@@ -10923,16 +11091,16 @@
     </row>
     <row r="105" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E105" s="3">
         <v>11</v>
@@ -10944,7 +11112,7 @@
         <v>120000000</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J105" s="3">
         <v>120000000</v>
@@ -10952,16 +11120,16 @@
     </row>
     <row r="106" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E106" s="3">
         <v>11</v>
@@ -10973,7 +11141,7 @@
         <v>-10000000</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J106" s="3">
         <v>-10000000</v>
@@ -10981,16 +11149,16 @@
     </row>
     <row r="107" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="E107" s="3">
         <v>7</v>
@@ -11002,7 +11170,7 @@
         <v>100000000</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J107" s="3">
         <v>100000000</v>
@@ -11011,16 +11179,16 @@
     <row r="108" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C109" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="s">
@@ -11031,7 +11199,7 @@
         <v>10000000</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J109" s="3">
         <v>10000000</v>
@@ -11039,16 +11207,16 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
@@ -11059,7 +11227,7 @@
         <v>-50000000</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J110" s="3">
         <v>-50000000</v>
@@ -11067,27 +11235,27 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3">
         <v>4500000</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J111" s="3">
         <v>4500000</v>
@@ -11095,16 +11263,16 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3" t="s">
@@ -11115,7 +11283,7 @@
         <v>20000000</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J112" s="3">
         <v>20000000</v>
@@ -11123,16 +11291,16 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3" t="s">
@@ -11143,7 +11311,7 @@
         <v>-10000000</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J113" s="3">
         <v>-10000000</v>
@@ -11151,27 +11319,27 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3">
         <v>90000000</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J114" s="3">
         <v>90000000</v>
@@ -11179,16 +11347,16 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B116" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C116" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D116" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -11200,7 +11368,7 @@
         <v>14000000</v>
       </c>
       <c r="I116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J116">
         <v>14000000</v>
@@ -11208,16 +11376,16 @@
     </row>
     <row r="117" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="E117" s="3">
         <v>2</v>
@@ -11229,7 +11397,7 @@
         <v>-20000000</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J117" s="3">
         <v>-20000000</v>
@@ -11237,28 +11405,28 @@
     </row>
     <row r="118" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E118" s="3">
         <v>12</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H118" s="3">
         <v>3000000</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J118" s="3">
         <v>3000000</v>
@@ -11266,16 +11434,16 @@
     </row>
     <row r="119" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E119" s="3">
         <v>12</v>
@@ -11287,7 +11455,7 @@
         <v>20000000</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J119" s="3">
         <v>20000000</v>
@@ -11295,16 +11463,16 @@
     </row>
     <row r="120" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="E120" s="3">
         <v>16</v>
@@ -11316,7 +11484,7 @@
         <v>-40000000</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J120" s="3">
         <v>-40000000</v>
@@ -11324,16 +11492,16 @@
     </row>
     <row r="121" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E121" s="3">
         <v>15</v>
@@ -11345,7 +11513,7 @@
         <v>30000000</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J121" s="3">
         <v>30000000</v>
@@ -11364,14 +11532,14 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -11395,7 +11563,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1">
         <v>2.2499999999999999E-2</v>
@@ -11403,7 +11571,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>1.8800000000000001E-2</v>
@@ -11411,7 +11579,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B6">
         <v>1.7299999999999999E-2</v>
@@ -11419,7 +11587,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>1.4999999999999999E-2</v>
@@ -11427,7 +11595,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>1.4999999999999999E-2</v>
@@ -11435,7 +11603,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B9">
         <v>1.4999999999999999E-2</v>
@@ -11443,7 +11611,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>1.4999999999999999E-2</v>
@@ -11451,7 +11619,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B11" s="3">
         <v>1.4999999999999999E-2</v>
@@ -11470,23 +11638,23 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11494,16 +11662,16 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>97</v>
+      <c r="B2" s="5">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>110.00000000000001</v>
+      <c r="B3" s="5">
+        <v>0.01</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -11511,8 +11679,8 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>73</v>
+      <c r="B4" s="5">
+        <v>0.05</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -11520,8 +11688,8 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>65</v>
+      <c r="B5" s="5">
+        <v>0.03</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -11529,8 +11697,8 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>52</v>
+      <c r="B6" s="5">
+        <v>0.03</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -11538,8 +11706,8 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>39</v>
+      <c r="B7" s="5">
+        <v>0.02</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -11547,8 +11715,8 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>198</v>
+      <c r="B8" s="5">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -11556,8 +11724,8 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>638</v>
+      <c r="B9" s="5">
+        <v>0.04</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -11565,8 +11733,8 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>210</v>
+      <c r="B10" s="5">
+        <v>0.03</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -11574,8 +11742,8 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>375</v>
+      <c r="B11" s="5">
+        <v>0.04</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -11583,8 +11751,8 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>240</v>
+      <c r="B12" s="5">
+        <v>0.12</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -11592,19 +11760,42 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>152</v>
+      <c r="B13" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>638</v>
-      </c>
-      <c r="C14" s="3"/>
+    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11616,15 +11807,15 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -11661,462 +11852,818 @@
       <c r="L1" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>0.51</v>
+        <v>0.75</v>
       </c>
       <c r="C2" s="3">
-        <v>0.47</v>
+        <v>0.1</v>
       </c>
       <c r="D2" s="3">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="3">
-        <v>0.46</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="3">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="G2" s="3">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
       <c r="H2" s="3">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="I2" s="3">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="J2" s="3">
-        <v>0.47</v>
+        <v>0.75</v>
       </c>
       <c r="K2" s="3">
-        <v>0.47</v>
+        <v>0.1</v>
       </c>
       <c r="L2" s="3">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="M2">
+        <v>0.25</v>
+      </c>
+      <c r="N2">
+        <v>0.2</v>
+      </c>
+      <c r="O2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0.51</v>
+        <v>0.75</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="D3" s="3">
-        <v>0.52</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="3">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="F3" s="3">
-        <v>0.52</v>
+        <v>0.15</v>
       </c>
       <c r="G3" s="3">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="3">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="I3" s="3">
-        <v>0.51</v>
+        <v>0.75</v>
       </c>
       <c r="J3" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K3" s="3">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="L3" s="3">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+      <c r="M3">
+        <v>0.2</v>
+      </c>
+      <c r="N3">
+        <v>0.15</v>
+      </c>
+      <c r="O3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>0.47</v>
+        <v>0.1</v>
       </c>
       <c r="B4" s="3">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="3">
-        <v>0.51</v>
+        <v>0.15</v>
       </c>
       <c r="F4" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G4" s="3">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
       <c r="H4" s="3">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="I4" s="3">
-        <v>0.51</v>
+        <v>0.1</v>
       </c>
       <c r="J4" s="3">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="K4" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L4" s="3">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+      <c r="M4">
+        <v>0.15</v>
+      </c>
+      <c r="N4">
+        <v>0.2</v>
+      </c>
+      <c r="O4">
+        <v>0.05</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="B5" s="3">
-        <v>0.52</v>
+        <v>0.15</v>
       </c>
       <c r="C5" s="3">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G5" s="3">
-        <v>0.36</v>
+        <v>0.05</v>
       </c>
       <c r="H5" s="3">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
       <c r="I5" s="3">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="J5" s="3">
-        <v>0.51</v>
+        <v>0.15</v>
       </c>
       <c r="K5" s="3">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="L5" s="3">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.2</v>
+      </c>
+      <c r="N5">
+        <v>0.25</v>
+      </c>
+      <c r="O5">
+        <v>0.05</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>0.46</v>
+        <v>0.25</v>
       </c>
       <c r="B6" s="3">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="C6" s="3">
-        <v>0.51</v>
+        <v>0.15</v>
       </c>
       <c r="D6" s="3">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="G6" s="3">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="H6" s="3">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="I6" s="3">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="J6" s="3">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
       <c r="K6" s="3">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="L6" s="3">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0.25</v>
+      </c>
+      <c r="O6">
+        <v>0.05</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="B7" s="3">
-        <v>0.52</v>
+        <v>0.15</v>
       </c>
       <c r="C7" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="D7" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="E7" s="3">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
       <c r="H7" s="3">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="I7" s="3">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="J7" s="3">
-        <v>0.49</v>
+        <v>0.15</v>
       </c>
       <c r="K7" s="3">
-        <v>0.51</v>
+        <v>0.2</v>
       </c>
       <c r="L7" s="3">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="M7">
+        <v>0.25</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0.05</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
       <c r="B8" s="3">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="C8" s="3">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
       <c r="D8" s="3">
-        <v>0.36</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="3">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="F8" s="3">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
       <c r="H8" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="I8" s="3">
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
       <c r="J8" s="3">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="K8" s="3">
-        <v>0.36</v>
+        <v>0.05</v>
       </c>
       <c r="L8" s="3">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="B9" s="3">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="C9" s="3">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="D9" s="3">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="3">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="F9" s="3">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="G9" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="3">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="K9" s="3">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="L9" s="3">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+      <c r="M9">
+        <v>0.15</v>
+      </c>
+      <c r="N9">
+        <v>0.2</v>
+      </c>
+      <c r="O9">
+        <v>0.05</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3">
-        <v>0.51</v>
+        <v>0.75</v>
       </c>
       <c r="C10" s="3">
-        <v>0.51</v>
+        <v>0.1</v>
       </c>
       <c r="D10" s="3">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="E10" s="3">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="F10" s="3">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="3">
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
       <c r="H10" s="3">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
       <c r="J10" s="3">
-        <v>0.49</v>
+        <v>0.75</v>
       </c>
       <c r="K10" s="3">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L10" s="3">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="M10">
+        <v>0.25</v>
+      </c>
+      <c r="N10">
+        <v>0.2</v>
+      </c>
+      <c r="O10">
+        <v>0.15</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>0.47</v>
+        <v>0.75</v>
       </c>
       <c r="B11" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="D11" s="3">
-        <v>0.51</v>
+        <v>0.15</v>
       </c>
       <c r="E11" s="3">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
       <c r="F11" s="3">
-        <v>0.49</v>
+        <v>0.15</v>
       </c>
       <c r="G11" s="3">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="H11" s="3">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="I11" s="3">
-        <v>0.49</v>
+        <v>0.75</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
       <c r="K11" s="3">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="L11" s="3">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+      <c r="M11">
+        <v>0.2</v>
+      </c>
+      <c r="N11">
+        <v>0.15</v>
+      </c>
+      <c r="O11">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>0.47</v>
+        <v>0.1</v>
       </c>
       <c r="B12" s="3">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="C12" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="E12" s="3">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="F12" s="3">
-        <v>0.51</v>
+        <v>0.2</v>
       </c>
       <c r="G12" s="3">
-        <v>0.36</v>
+        <v>0.05</v>
       </c>
       <c r="H12" s="3">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="I12" s="3">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J12" s="3">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="K12" s="3">
         <v>1</v>
       </c>
       <c r="L12" s="3">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+      <c r="M12">
+        <v>0.15</v>
+      </c>
+      <c r="N12">
+        <v>0.2</v>
+      </c>
+      <c r="O12">
+        <v>0.05</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="B13" s="3">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
       <c r="C13" s="3">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="D13" s="3">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="F13" s="3">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="G13" s="3">
-        <v>0.36</v>
+        <v>0.05</v>
       </c>
       <c r="H13" s="3">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="I13" s="3">
-        <v>0.46</v>
+        <v>0.2</v>
       </c>
       <c r="J13" s="3">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
       <c r="K13" s="3">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="L13" s="3">
         <v>1</v>
       </c>
+      <c r="M13">
+        <v>0.2</v>
+      </c>
+      <c r="N13">
+        <v>0.25</v>
+      </c>
+      <c r="O13">
+        <v>0.05</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0.25</v>
+      </c>
+      <c r="O14">
+        <v>0.05</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12124,83 +12671,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B3" s="3">
-        <v>360000</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4" s="3">
-        <v>360000</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
-        <v>210000000</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -12250,7 +12720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -12290,4 +12760,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9500000</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B3" s="3">
+        <v>500000</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B5" s="3">
+        <v>49000000</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/frtb_config.xlsx
+++ b/frtb_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="run_cases" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="697">
   <si>
     <t>2w</t>
   </si>
@@ -1431,9 +1431,6 @@
     <t>ISIN:UNKNOWN2</t>
   </si>
   <si>
-    <t>S_CRQ_2,S_CRQ_4</t>
-  </si>
-  <si>
     <t>S_CRQ_1,S_CRQ_4</t>
   </si>
   <si>
@@ -2091,9 +2088,6 @@
     <t>S_CSR_2</t>
   </si>
   <si>
-    <t>S_CSR_1,S_CSR_2</t>
-  </si>
-  <si>
     <t>issuer_id</t>
   </si>
   <si>
@@ -2101,6 +2095,33 @@
   </si>
   <si>
     <t>S_CSR_1,S_CSR_2, S_CSR_3</t>
+  </si>
+  <si>
+    <t>S_CSR_4</t>
+  </si>
+  <si>
+    <t>S_CSR_5</t>
+  </si>
+  <si>
+    <t>Risk_CSRCurvature</t>
+  </si>
+  <si>
+    <t>S_CSR_1,S_CSR_2, S_CSR_3,S_CSR_4, S_CSR_5</t>
+  </si>
+  <si>
+    <t>S_CSR_6</t>
+  </si>
+  <si>
+    <t>S_CSR_7</t>
+  </si>
+  <si>
+    <t>S_CSR_1,S_CSR_2, S_CSR_3,S_CSR_4, S_CSR_5,S_CSR_6, S_CSR_7</t>
+  </si>
+  <si>
+    <t>COAL3119967</t>
+  </si>
+  <si>
+    <t>COAL3119968</t>
   </si>
 </sst>
 </file>
@@ -2943,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,7 +3106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>113</v>
       </c>
@@ -3093,7 +3114,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>115</v>
       </c>
@@ -3101,7 +3122,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>116</v>
       </c>
@@ -3109,7 +3130,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>117</v>
       </c>
@@ -3117,50 +3138,47 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>126</v>
       </c>
@@ -3168,15 +3186,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>128</v>
       </c>
@@ -3184,7 +3202,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>129</v>
       </c>
@@ -3192,7 +3210,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>130</v>
       </c>
@@ -3200,7 +3218,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>131</v>
       </c>
@@ -3208,7 +3226,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>132</v>
       </c>
@@ -3277,7 +3295,7 @@
         <v>147</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3285,7 +3303,7 @@
         <v>148</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3365,7 +3383,7 @@
         <v>158</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3373,7 +3391,7 @@
         <v>159</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3381,7 +3399,7 @@
         <v>160</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3389,7 +3407,7 @@
         <v>161</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3397,7 +3415,7 @@
         <v>162</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3405,7 +3423,7 @@
         <v>168</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3413,7 +3431,7 @@
         <v>169</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3421,7 +3439,7 @@
         <v>170</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3429,7 +3447,7 @@
         <v>171</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3437,10 +3455,7 @@
         <v>172</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>134</v>
+        <v>687</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3448,7 +3463,7 @@
         <v>173</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3456,7 +3471,10 @@
         <v>174</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>466</v>
+        <v>694</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3464,7 +3482,7 @@
         <v>175</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,7 +3490,7 @@
         <v>176</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3480,7 +3498,7 @@
         <v>177</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3488,7 +3506,7 @@
         <v>178</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3496,7 +3514,7 @@
         <v>179</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3504,7 +3522,7 @@
         <v>180</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3512,7 +3530,7 @@
         <v>181</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3520,7 +3538,7 @@
         <v>182</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3528,7 +3546,7 @@
         <v>183</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3536,7 +3554,7 @@
         <v>184</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3544,7 +3562,7 @@
         <v>185</v>
       </c>
       <c r="B73" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3552,7 +3570,7 @@
         <v>186</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3560,7 +3578,7 @@
         <v>187</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3568,7 +3586,7 @@
         <v>188</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3576,7 +3594,7 @@
         <v>189</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3584,7 +3602,7 @@
         <v>190</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3592,7 +3610,7 @@
         <v>191</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3600,7 +3618,7 @@
         <v>192</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3608,7 +3626,7 @@
         <v>193</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3616,7 +3634,7 @@
         <v>194</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3624,7 +3642,7 @@
         <v>195</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3632,7 +3650,7 @@
         <v>196</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3640,7 +3658,7 @@
         <v>197</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3648,7 +3666,7 @@
         <v>198</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3656,7 +3674,7 @@
         <v>199</v>
       </c>
       <c r="B87" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3664,7 +3682,7 @@
         <v>200</v>
       </c>
       <c r="B88" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3672,7 +3690,7 @@
         <v>201</v>
       </c>
       <c r="B89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3696,7 +3714,7 @@
         <v>204</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3704,7 +3722,7 @@
         <v>205</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3712,7 +3730,7 @@
         <v>206</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3720,7 +3738,7 @@
         <v>207</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3728,7 +3746,7 @@
         <v>208</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3736,7 +3754,7 @@
         <v>209</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3744,7 +3762,7 @@
         <v>210</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3752,7 +3770,7 @@
         <v>211</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3760,7 +3778,7 @@
         <v>212</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3776,7 +3794,7 @@
         <v>214</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3784,7 +3802,7 @@
         <v>215</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3792,7 +3810,7 @@
         <v>216</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3800,7 +3818,7 @@
         <v>217</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3808,7 +3826,7 @@
         <v>218</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3816,7 +3834,7 @@
         <v>219</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3824,7 +3842,7 @@
         <v>220</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3832,7 +3850,7 @@
         <v>221</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3840,7 +3858,7 @@
         <v>222</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3848,7 +3866,7 @@
         <v>223</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3856,7 +3874,7 @@
         <v>224</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3864,7 +3882,7 @@
         <v>225</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3872,7 +3890,7 @@
         <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3896,7 +3914,7 @@
         <v>229</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3904,7 +3922,7 @@
         <v>230</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3912,7 +3930,7 @@
         <v>231</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3920,7 +3938,7 @@
         <v>232</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3928,7 +3946,7 @@
         <v>233</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3936,7 +3954,7 @@
         <v>234</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3944,7 +3962,7 @@
         <v>235</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3952,7 +3970,7 @@
         <v>236</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3960,7 +3978,7 @@
         <v>237</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -4264,7 +4282,7 @@
         <v>281</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4272,7 +4290,7 @@
         <v>282</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -4280,7 +4298,7 @@
         <v>283</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -4288,7 +4306,7 @@
         <v>284</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -4296,7 +4314,7 @@
         <v>285</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -4304,7 +4322,7 @@
         <v>286</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -4312,7 +4330,7 @@
         <v>287</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -4320,7 +4338,7 @@
         <v>288</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -4328,7 +4346,7 @@
         <v>289</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -4336,7 +4354,7 @@
         <v>290</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -4344,7 +4362,7 @@
         <v>291</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -4352,7 +4370,7 @@
         <v>292</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -4360,7 +4378,7 @@
         <v>293</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -4368,7 +4386,7 @@
         <v>294</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -4376,7 +4394,7 @@
         <v>295</v>
       </c>
       <c r="B183" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4384,7 +4402,7 @@
         <v>296</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -4392,7 +4410,7 @@
         <v>297</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -4400,7 +4418,7 @@
         <v>298</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -4408,7 +4426,7 @@
         <v>299</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -4416,7 +4434,7 @@
         <v>300</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -4424,7 +4442,7 @@
         <v>301</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -4432,7 +4450,7 @@
         <v>302</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -4440,7 +4458,7 @@
         <v>303</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4448,7 +4466,7 @@
         <v>304</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4456,7 +4474,7 @@
         <v>305</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4464,7 +4482,7 @@
         <v>306</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4472,7 +4490,7 @@
         <v>307</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4480,7 +4498,7 @@
         <v>308</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4488,7 +4506,7 @@
         <v>309</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4496,7 +4514,7 @@
         <v>310</v>
       </c>
       <c r="B198" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4504,7 +4522,7 @@
         <v>311</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4512,7 +4530,7 @@
         <v>312</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4520,7 +4538,7 @@
         <v>313</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4528,7 +4546,7 @@
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4536,7 +4554,7 @@
         <v>315</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4544,7 +4562,7 @@
         <v>316</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4552,7 +4570,7 @@
         <v>317</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4560,7 +4578,7 @@
         <v>318</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4568,7 +4586,7 @@
         <v>319</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4576,7 +4594,7 @@
         <v>320</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4584,7 +4602,7 @@
         <v>321</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4592,7 +4610,7 @@
         <v>322</v>
       </c>
       <c r="B210" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4600,7 +4618,7 @@
         <v>323</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4608,7 +4626,7 @@
         <v>324</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4616,7 +4634,7 @@
         <v>325</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4624,7 +4642,7 @@
         <v>326</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4632,7 +4650,7 @@
         <v>327</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4640,7 +4658,7 @@
         <v>328</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -5736,7 +5754,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5870,7 +5888,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B2" s="3">
         <v>3100000</v>
@@ -5881,7 +5899,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B3" s="3">
         <v>31000000</v>
@@ -5892,7 +5910,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B4" s="3">
         <v>700000</v>
@@ -5903,7 +5921,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B5" s="3">
         <v>2100000</v>
@@ -5914,7 +5932,7 @@
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B6" s="3">
         <v>690000000</v>
@@ -5936,7 +5954,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B8" s="3">
         <v>1100000000</v>
@@ -5947,7 +5965,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B9" s="3">
         <v>11000000000</v>
@@ -5958,7 +5976,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B10" s="3">
         <v>170000000</v>
@@ -5969,7 +5987,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B11" s="3">
         <v>500000000</v>
@@ -5980,7 +5998,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B12" s="3">
         <v>39000000000</v>
@@ -7060,7 +7078,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7226,7 +7244,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B2" s="3">
         <v>700000000</v>
@@ -7237,7 +7255,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B3" s="3">
         <v>23000000000</v>
@@ -7248,7 +7266,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B4" s="3">
         <v>3200000000</v>
@@ -7259,7 +7277,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B5" s="3">
         <v>3800000000</v>
@@ -7270,7 +7288,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B6" s="3">
         <v>1800000000</v>
@@ -7281,7 +7299,7 @@
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B7" s="3">
         <v>6500000000</v>
@@ -7292,7 +7310,7 @@
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B8" s="3">
         <v>400000000</v>
@@ -7303,7 +7321,7 @@
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B9" s="3">
         <v>45000000</v>
@@ -7314,7 +7332,7 @@
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B10" s="3">
         <v>300000000</v>
@@ -7325,7 +7343,7 @@
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B11" s="3">
         <v>1200000</v>
@@ -7336,7 +7354,7 @@
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B12" s="3">
         <v>1800000000</v>
@@ -7347,7 +7365,7 @@
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B13" s="3">
         <v>5600000000</v>
@@ -7358,7 +7376,7 @@
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B14" s="3">
         <v>480000000</v>
@@ -7369,7 +7387,7 @@
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B15" s="3">
         <v>750000000</v>
@@ -7380,7 +7398,7 @@
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B16" s="3">
         <v>3500000</v>
@@ -7391,7 +7409,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B17" s="3">
         <v>1200000</v>
@@ -7402,7 +7420,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B18" s="3">
         <v>4900000</v>
@@ -7413,7 +7431,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B19" s="3">
         <v>1900000000</v>
@@ -7424,7 +7442,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B20" s="3">
         <v>330000000</v>
@@ -7435,7 +7453,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B21" s="3">
         <v>590000000</v>
@@ -7446,7 +7464,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B22" s="3">
         <v>590000000</v>
@@ -7457,7 +7475,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B23" s="3">
         <v>560000000</v>
@@ -7468,7 +7486,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B24">
         <v>350000000</v>
@@ -7479,7 +7497,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B25">
         <v>120000000</v>
@@ -7490,7 +7508,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B26">
         <v>330000000</v>
@@ -7501,7 +7519,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B27">
         <v>110000000</v>
@@ -7512,7 +7530,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B28">
         <v>400000000</v>
@@ -7523,7 +7541,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B29">
         <v>420000000</v>
@@ -7534,7 +7552,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B30">
         <v>56000000</v>
@@ -7545,7 +7563,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B31">
         <v>66000000</v>
@@ -7556,7 +7574,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B32">
         <v>26000000</v>
@@ -7567,7 +7585,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B33">
         <v>27000000</v>
@@ -7596,13 +7614,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>646</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>56</v>
@@ -7611,7 +7629,7 @@
         <v>80</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7741,18 +7759,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="29.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="3"/>
@@ -7767,16 +7785,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>16</v>
@@ -7794,42 +7812,42 @@
         <v>20</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>655</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>651</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K2" s="3">
         <v>10.388946000000001</v>
@@ -7843,25 +7861,25 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>651</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K3" s="3">
         <v>-5.8568020000000001</v>
@@ -7875,25 +7893,25 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K4" s="3">
         <v>-8.0400000000000003E-3</v>
@@ -7907,25 +7925,25 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K5" s="3">
         <v>-1.0331999999999999E-2</v>
@@ -7942,22 +7960,22 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>666</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K6" s="3">
         <v>-0.57004999999999995</v>
@@ -7971,22 +7989,22 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K7" s="3">
         <v>-0.65703599999999995</v>
@@ -8000,25 +8018,25 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>651</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K8" s="3">
         <v>-6.3654500000000001</v>
@@ -8032,22 +8050,22 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>666</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K9" s="3">
         <v>-6.3654500000000001</v>
@@ -8061,22 +8079,22 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K10" s="3">
         <v>-6.3654500000000001</v>
@@ -8090,28 +8108,28 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K12" s="3">
         <v>-7.533881</v>
@@ -8125,28 +8143,28 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>453</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K13" s="3">
         <v>-24.221287</v>
@@ -8160,28 +8178,28 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>456</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G14" s="3">
         <v>16</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K14" s="3">
         <v>-24.221287</v>
@@ -8193,107 +8211,247 @@
         <v>1042.4848460000001</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-169.52065999999999</v>
+      </c>
+      <c r="M15" s="3">
+        <v>872.96418600000004</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1042.4848460000001</v>
+      </c>
+    </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>689</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>670</v>
+        <v>690</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="K16" s="3">
-        <v>1386.528139</v>
+        <v>202.48623499999999</v>
       </c>
       <c r="M16" s="3">
-        <v>1400.393421</v>
+        <v>1244.9710809999999</v>
       </c>
       <c r="N16" s="3">
-        <v>1386.528139</v>
+        <v>1042.4848460000001</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>692</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>671</v>
+        <v>690</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="K17" s="3">
-        <v>1386.528139</v>
+        <v>-169.52065999999999</v>
       </c>
       <c r="M17" s="3">
-        <v>1400.393421</v>
+        <v>672.96418600000004</v>
       </c>
       <c r="N17" s="3">
-        <v>1386.528139</v>
+        <v>842.48484599999995</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="K18" s="3">
+        <v>202.48623499999999</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1644.9710809999999</v>
+      </c>
+      <c r="N18" s="3">
+        <v>842.48484599999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1386.528139</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1400.393421</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1386.528139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1386.528139</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1400.393421</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1386.528139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="E23" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1386.528139</v>
+      </c>
+      <c r="L23" s="3">
+        <v>72.071212000000003</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1400.393421</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1386.528139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="J24" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="K24" s="3">
         <v>1386.528139</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L24" s="3">
         <v>72.071212000000003</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M24" s="3">
         <v>1400.393421</v>
       </c>
-      <c r="N18" s="3">
-        <v>1386.528139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1386.528139</v>
-      </c>
-      <c r="L19" s="3">
-        <v>72.071212000000003</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1400.393421</v>
-      </c>
-      <c r="N19" s="3">
+      <c r="N24" s="3">
         <v>1386.528139</v>
       </c>
     </row>
@@ -9159,13 +9317,13 @@
         <v>77</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -9188,13 +9346,13 @@
         <v>77</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -9217,13 +9375,13 @@
         <v>77</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -9246,13 +9404,13 @@
         <v>77</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>508</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -9275,13 +9433,13 @@
         <v>77</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -9304,13 +9462,13 @@
         <v>77</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -9333,13 +9491,13 @@
         <v>77</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -9362,10 +9520,10 @@
         <v>77</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>79</v>
@@ -9391,10 +9549,10 @@
         <v>77</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>465</v>
@@ -9477,13 +9635,13 @@
         <v>56</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E42" s="3">
         <v>7</v>
@@ -9503,13 +9661,13 @@
         <v>56</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E43" s="3">
         <v>3</v>
@@ -9529,13 +9687,13 @@
         <v>56</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E44" s="3">
         <v>3</v>
@@ -9555,13 +9713,13 @@
         <v>56</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E45" s="3">
         <v>3</v>
@@ -9581,13 +9739,13 @@
         <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E46" s="3">
         <v>9</v>
@@ -9607,13 +9765,13 @@
         <v>56</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E47" s="3">
         <v>9</v>
@@ -9633,13 +9791,13 @@
         <v>56</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E48" s="3">
         <v>10</v>
@@ -9659,13 +9817,13 @@
         <v>56</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E49" s="3">
         <v>11</v>
@@ -9685,13 +9843,13 @@
         <v>56</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E50" s="3">
         <v>10</v>
@@ -9737,7 +9895,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>73</v>
@@ -10001,7 +10159,7 @@
         <v>82</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
@@ -10029,7 +10187,7 @@
         <v>82</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E64" s="3">
         <v>15</v>
@@ -10051,13 +10209,13 @@
         <v>80</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E65" s="3">
         <v>15</v>
@@ -10077,13 +10235,13 @@
         <v>80</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E66" s="3">
         <v>8</v>
@@ -10103,13 +10261,13 @@
         <v>80</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E67" s="3">
         <v>8</v>
@@ -10129,13 +10287,13 @@
         <v>80</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E68" s="3">
         <v>8</v>
@@ -10155,13 +10313,13 @@
         <v>80</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E69" s="3">
         <v>9</v>
@@ -10181,13 +10339,13 @@
         <v>80</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E70" s="3">
         <v>9</v>
@@ -10207,13 +10365,13 @@
         <v>80</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E71" s="3">
         <v>12</v>
@@ -10233,13 +10391,13 @@
         <v>80</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E72" s="3">
         <v>12</v>
@@ -10259,13 +10417,13 @@
         <v>80</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E73" s="3">
         <v>12</v>
@@ -10522,13 +10680,13 @@
         <v>77</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>10</v>
@@ -10551,13 +10709,13 @@
         <v>77</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>10</v>
@@ -10580,13 +10738,13 @@
         <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>10</v>
@@ -10609,13 +10767,13 @@
         <v>77</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>10</v>
@@ -10638,13 +10796,13 @@
         <v>77</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>10</v>
@@ -10667,13 +10825,13 @@
         <v>77</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>487</v>
       </c>
       <c r="E89" s="3">
         <v>1</v>
@@ -10696,13 +10854,13 @@
         <v>77</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="E90" s="3">
         <v>2</v>
@@ -10725,13 +10883,13 @@
         <v>77</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E91" s="3">
         <v>2</v>
@@ -10755,13 +10913,13 @@
         <v>77</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="D93" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>10</v>
@@ -10785,13 +10943,13 @@
         <v>77</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>10</v>
@@ -10815,13 +10973,13 @@
         <v>77</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>10</v>
@@ -10845,13 +11003,13 @@
         <v>77</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>10</v>
@@ -10875,13 +11033,13 @@
         <v>77</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>10</v>
@@ -10905,13 +11063,13 @@
         <v>77</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
@@ -10935,13 +11093,13 @@
         <v>77</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E99" s="3">
         <v>2</v>
@@ -10965,13 +11123,13 @@
         <v>77</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E100" s="3">
         <v>2</v>
@@ -11007,10 +11165,10 @@
         <v>56</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>76</v>
@@ -11036,13 +11194,13 @@
         <v>56</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E103" s="3">
         <v>9</v>
@@ -11065,13 +11223,13 @@
         <v>56</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E104" s="3">
         <v>9</v>
@@ -11094,13 +11252,13 @@
         <v>56</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E105" s="3">
         <v>11</v>
@@ -11123,13 +11281,13 @@
         <v>56</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E106" s="3">
         <v>11</v>
@@ -11152,13 +11310,13 @@
         <v>56</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>591</v>
       </c>
       <c r="E107" s="3">
         <v>7</v>
@@ -11350,13 +11508,13 @@
         <v>80</v>
       </c>
       <c r="B116" t="s">
+        <v>634</v>
+      </c>
+      <c r="C116" t="s">
         <v>635</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>636</v>
-      </c>
-      <c r="D116" t="s">
-        <v>637</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -11379,13 +11537,13 @@
         <v>80</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>637</v>
       </c>
       <c r="E117" s="3">
         <v>2</v>
@@ -11408,13 +11566,13 @@
         <v>80</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E118" s="3">
         <v>12</v>
@@ -11437,13 +11595,13 @@
         <v>80</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E119" s="3">
         <v>12</v>
@@ -11466,13 +11624,13 @@
         <v>80</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>641</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>642</v>
       </c>
       <c r="E120" s="3">
         <v>16</v>
@@ -11495,13 +11653,13 @@
         <v>80</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E121" s="3">
         <v>15</v>
@@ -11539,7 +11697,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -11579,7 +11737,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B6">
         <v>1.7299999999999999E-2</v>
@@ -11603,7 +11761,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B9">
         <v>1.4999999999999999E-2</v>
@@ -11619,7 +11777,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B11" s="3">
         <v>1.4999999999999999E-2</v>
@@ -12791,7 +12949,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2" s="3">
         <v>9500000</v>
@@ -12802,7 +12960,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B3" s="3">
         <v>500000</v>
@@ -12824,7 +12982,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B5" s="3">
         <v>49000000</v>

--- a/frtb_config.xlsx
+++ b/frtb_config.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="699">
   <si>
     <t>2w</t>
   </si>
@@ -2122,6 +2122,12 @@
   </si>
   <si>
     <t>COAL3119968</t>
+  </si>
+  <si>
+    <t>IXOPTMB78K</t>
+  </si>
+  <si>
+    <t>Risk_FXCurvature</t>
   </si>
 </sst>
 </file>
@@ -2964,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C315"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,7 +3112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>113</v>
       </c>
@@ -3114,7 +3120,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>115</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>116</v>
       </c>
@@ -3130,7 +3136,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>117</v>
       </c>
@@ -3138,7 +3144,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>118</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>119</v>
       </c>
@@ -3154,7 +3160,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>120</v>
       </c>
@@ -3162,7 +3168,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>124</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>125</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>126</v>
       </c>
@@ -3186,7 +3192,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>127</v>
       </c>
@@ -3194,7 +3200,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>128</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>129</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>130</v>
       </c>
@@ -3218,7 +3224,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>131</v>
       </c>
@@ -3226,12 +3232,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>139</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3362,7 +3371,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>156</v>
       </c>
@@ -3370,7 +3379,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>157</v>
       </c>
@@ -3378,7 +3387,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>158</v>
       </c>
@@ -3386,7 +3395,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>159</v>
       </c>
@@ -3394,7 +3403,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>160</v>
       </c>
@@ -3402,7 +3411,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>161</v>
       </c>
@@ -3410,7 +3419,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>162</v>
       </c>
@@ -3418,7 +3427,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>168</v>
       </c>
@@ -3426,7 +3435,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>169</v>
       </c>
@@ -3434,7 +3443,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>170</v>
       </c>
@@ -3442,7 +3451,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>171</v>
       </c>
@@ -3450,7 +3459,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>172</v>
       </c>
@@ -3458,7 +3467,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>173</v>
       </c>
@@ -3466,18 +3475,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>175</v>
       </c>
@@ -3485,7 +3491,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>176</v>
       </c>
@@ -7759,10 +7765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8358,6 +8364,9 @@
       <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>697</v>
+      </c>
       <c r="E21" s="3" t="s">
         <v>668</v>
       </c>
@@ -8365,13 +8374,13 @@
         <v>669</v>
       </c>
       <c r="K21" s="3">
-        <v>1386.528139</v>
+        <v>1220813</v>
       </c>
       <c r="M21" s="3">
-        <v>1400.393421</v>
+        <v>194670.5</v>
       </c>
       <c r="N21" s="3">
-        <v>1386.528139</v>
+        <v>182462.4</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -8381,6 +8390,9 @@
       <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C22" s="3" t="s">
+        <v>697</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>668</v>
       </c>
@@ -8394,7 +8406,7 @@
         <v>1400.393421</v>
       </c>
       <c r="N22" s="3">
-        <v>1386.528139</v>
+        <v>182462.4</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -8404,6 +8416,9 @@
       <c r="B23" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>697</v>
+      </c>
       <c r="E23" s="3" t="s">
         <v>671</v>
       </c>
@@ -8433,6 +8448,9 @@
       <c r="B24" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>697</v>
+      </c>
       <c r="E24" s="3" t="s">
         <v>671</v>
       </c>
@@ -8453,6 +8471,64 @@
       </c>
       <c r="N24" s="3">
         <v>1386.528139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="K25" s="3">
+        <v>406163</v>
+      </c>
+      <c r="M25" s="3">
+        <v>586625.4</v>
+      </c>
+      <c r="N25" s="3">
+        <v>182462.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-177823</v>
+      </c>
+      <c r="M26" s="3">
+        <v>4639.3450000000003</v>
+      </c>
+      <c r="N26" s="3">
+        <v>182462.4</v>
       </c>
     </row>
   </sheetData>
